--- a/数据/上证指数与沪深300.xlsx
+++ b/数据/上证指数与沪深300.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\研究生\自制程序\爬虫\jupyter文件\econometrics\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91249EB-9DAC-4F5E-A446-F04AC7A865CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B3C7C2-C3FE-4A52-A31D-DD47490052CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:C461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -383,5065 +383,5068 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>43791</v>
+        <v>43102</v>
       </c>
       <c r="B2" s="1">
-        <v>3849.9947999999999</v>
+        <v>4087.4011999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>2885.2883999999999</v>
+        <v>3348.3258999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>43790</v>
+        <v>43103</v>
       </c>
       <c r="B3" s="1">
-        <v>3889.598</v>
+        <v>4111.3924999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>2903.6379000000002</v>
+        <v>3369.1084000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>43789</v>
+        <v>43104</v>
       </c>
       <c r="B4" s="1">
-        <v>3907.8640999999998</v>
+        <v>4128.8118999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>2911.0533999999998</v>
+        <v>3385.7102</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>43788</v>
+        <v>43105</v>
       </c>
       <c r="B5" s="1">
-        <v>3947.0392000000002</v>
+        <v>4138.7505000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>2933.9908</v>
+        <v>3391.7501000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>43787</v>
+        <v>43108</v>
       </c>
       <c r="B6" s="1">
-        <v>3907.9290999999998</v>
+        <v>4160.1594999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>2909.2002000000002</v>
+        <v>3409.4794999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>43784</v>
+        <v>43109</v>
       </c>
       <c r="B7" s="1">
-        <v>3877.0891999999999</v>
+        <v>4189.2977000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>2891.3431</v>
+        <v>3413.8996000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>43783</v>
+        <v>43110</v>
       </c>
       <c r="B8" s="1">
-        <v>3905.857</v>
+        <v>4207.8131999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>2909.8697000000002</v>
+        <v>3421.8343</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>43782</v>
+        <v>43111</v>
       </c>
       <c r="B9" s="1">
-        <v>3899.9814999999999</v>
+        <v>4205.5862999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>2905.2408999999998</v>
+        <v>3425.3449000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>43781</v>
+        <v>43112</v>
       </c>
       <c r="B10" s="1">
-        <v>3903.6887999999999</v>
+        <v>4225.0010000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>2914.8231999999998</v>
+        <v>3428.9407000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>43780</v>
+        <v>43115</v>
       </c>
       <c r="B11" s="1">
-        <v>3902.9783000000002</v>
+        <v>4225.2393000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>2909.9746</v>
+        <v>3410.4881999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>43777</v>
+        <v>43116</v>
       </c>
       <c r="B12" s="1">
-        <v>3973.0106999999998</v>
+        <v>4258.473</v>
       </c>
       <c r="C12" s="1">
-        <v>2964.1849000000002</v>
+        <v>3436.5940000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>43776</v>
+        <v>43117</v>
       </c>
       <c r="B13" s="1">
-        <v>3991.8748999999998</v>
+        <v>4248.1163999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>2978.7143999999998</v>
+        <v>3444.6713</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>43775</v>
+        <v>43118</v>
       </c>
       <c r="B14" s="1">
-        <v>3984.8816000000002</v>
+        <v>4271.4168</v>
       </c>
       <c r="C14" s="1">
-        <v>2978.5954999999999</v>
+        <v>3474.7539999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>43774</v>
+        <v>43119</v>
       </c>
       <c r="B15" s="1">
-        <v>4002.8128000000002</v>
+        <v>4285.3950000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>2991.5621999999998</v>
+        <v>3487.864</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>43773</v>
+        <v>43122</v>
       </c>
       <c r="B16" s="1">
-        <v>3978.1215999999999</v>
+        <v>4336.5973999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>2975.4919</v>
+        <v>3501.3622</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>43770</v>
+        <v>43123</v>
       </c>
       <c r="B17" s="1">
-        <v>3952.3872000000001</v>
+        <v>4382.6129000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>2958.1992</v>
+        <v>3546.5048000000002</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>43769</v>
+        <v>43124</v>
       </c>
       <c r="B18" s="1">
-        <v>3886.7519000000002</v>
+        <v>4389.8852999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>2929.0560999999998</v>
+        <v>3559.4652999999998</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>43768</v>
+        <v>43125</v>
       </c>
       <c r="B19" s="1">
-        <v>3891.2255</v>
+        <v>4365.0793999999996</v>
       </c>
       <c r="C19" s="1">
-        <v>2939.3209000000002</v>
+        <v>3548.3069999999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>43767</v>
+        <v>43126</v>
       </c>
       <c r="B20" s="1">
-        <v>3910.2260000000001</v>
+        <v>4381.2996000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>2954.1759999999999</v>
+        <v>3558.1288</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>43766</v>
+        <v>43129</v>
       </c>
       <c r="B21" s="1">
-        <v>3926.585</v>
+        <v>4302.0181000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>2980.0497999999998</v>
+        <v>3523.0007000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>43763</v>
+        <v>43130</v>
       </c>
       <c r="B22" s="1">
-        <v>3896.7923000000001</v>
+        <v>4256.1021000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>2954.9326999999998</v>
+        <v>3488.009</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>43762</v>
+        <v>43131</v>
       </c>
       <c r="B23" s="1">
-        <v>3870.6678000000002</v>
+        <v>4275.8986000000004</v>
       </c>
       <c r="C23" s="1">
-        <v>2940.9214999999999</v>
+        <v>3480.8334</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>43761</v>
+        <v>43132</v>
       </c>
       <c r="B24" s="1">
-        <v>3871.0848000000001</v>
+        <v>4245.8977999999997</v>
       </c>
       <c r="C24" s="1">
-        <v>2941.6188000000002</v>
+        <v>3446.9798999999998</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>43760</v>
+        <v>43133</v>
       </c>
       <c r="B25" s="1">
-        <v>3895.8809000000001</v>
+        <v>4271.2326000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>2954.3798999999999</v>
+        <v>3462.0808000000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>43759</v>
+        <v>43136</v>
       </c>
       <c r="B26" s="1">
-        <v>3880.8398000000002</v>
+        <v>4274.1463999999996</v>
       </c>
       <c r="C26" s="1">
-        <v>2939.6179000000002</v>
+        <v>3487.4969999999998</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>43756</v>
+        <v>43137</v>
       </c>
       <c r="B27" s="1">
-        <v>3869.3777</v>
+        <v>4148.8855999999996</v>
       </c>
       <c r="C27" s="1">
-        <v>2938.1412999999998</v>
+        <v>3370.652</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>43755</v>
+        <v>43138</v>
       </c>
       <c r="B28" s="1">
-        <v>3925.2215999999999</v>
+        <v>4050.4971999999998</v>
       </c>
       <c r="C28" s="1">
-        <v>2977.3341999999998</v>
+        <v>3309.2597999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>43754</v>
+        <v>43139</v>
       </c>
       <c r="B29" s="1">
-        <v>3922.6853999999998</v>
+        <v>4012.0472</v>
       </c>
       <c r="C29" s="1">
-        <v>2978.7123999999999</v>
+        <v>3262.0504000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>43753</v>
+        <v>43140</v>
       </c>
       <c r="B30" s="1">
-        <v>3936.2498000000001</v>
+        <v>3840.6527000000001</v>
       </c>
       <c r="C30" s="1">
-        <v>2991.0459000000001</v>
+        <v>3129.8508000000002</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>43752</v>
+        <v>43143</v>
       </c>
       <c r="B31" s="1">
-        <v>3953.2411000000002</v>
+        <v>3890.1046000000001</v>
       </c>
       <c r="C31" s="1">
-        <v>3007.8834000000002</v>
+        <v>3154.1253999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>43749</v>
+        <v>43144</v>
       </c>
       <c r="B32" s="1">
-        <v>3911.7253000000001</v>
+        <v>3935.6324</v>
       </c>
       <c r="C32" s="1">
-        <v>2973.6558</v>
+        <v>3184.9587000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43748</v>
+        <v>43145</v>
       </c>
       <c r="B33" s="1">
-        <v>3874.6390999999999</v>
+        <v>3966.9614000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>2947.7105999999999</v>
+        <v>3199.1588999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>43747</v>
+        <v>43153</v>
       </c>
       <c r="B34" s="1">
-        <v>3843.2392</v>
+        <v>4052.7332000000001</v>
       </c>
       <c r="C34" s="1">
-        <v>2924.8566000000001</v>
+        <v>3268.5589</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>43746</v>
+        <v>43154</v>
       </c>
       <c r="B35" s="1">
-        <v>3837.6790999999998</v>
+        <v>4071.0889000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>2913.5704000000001</v>
+        <v>3289.0241000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>43738</v>
+        <v>43157</v>
       </c>
       <c r="B36" s="1">
-        <v>3814.5282000000002</v>
+        <v>4118.4186</v>
       </c>
       <c r="C36" s="1">
-        <v>2905.1891999999998</v>
+        <v>3329.5736999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>43735</v>
+        <v>43158</v>
       </c>
       <c r="B37" s="1">
-        <v>3852.6534000000001</v>
+        <v>4058.9805999999999</v>
       </c>
       <c r="C37" s="1">
-        <v>2932.1669999999999</v>
+        <v>3292.0679</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>43734</v>
+        <v>43159</v>
       </c>
       <c r="B38" s="1">
-        <v>3841.1388000000002</v>
+        <v>4023.6415000000002</v>
       </c>
       <c r="C38" s="1">
-        <v>2929.0875000000001</v>
+        <v>3259.4079999999999</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>43733</v>
+        <v>43160</v>
       </c>
       <c r="B39" s="1">
-        <v>3870.9837000000002</v>
+        <v>4049.0862999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>2955.4324999999999</v>
+        <v>3273.7548999999999</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43732</v>
+        <v>43161</v>
       </c>
       <c r="B40" s="1">
-        <v>3901.0758000000001</v>
+        <v>4016.4609999999998</v>
       </c>
       <c r="C40" s="1">
-        <v>2985.3406</v>
+        <v>3254.5282999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43731</v>
+        <v>43164</v>
       </c>
       <c r="B41" s="1">
-        <v>3890.6615999999999</v>
+        <v>4018.0970000000002</v>
       </c>
       <c r="C41" s="1">
-        <v>2977.0767000000001</v>
+        <v>3256.9263000000001</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43728</v>
+        <v>43165</v>
       </c>
       <c r="B42" s="1">
-        <v>3935.6511</v>
+        <v>4066.5646999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>3006.4467</v>
+        <v>3289.6419000000001</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>43727</v>
+        <v>43166</v>
       </c>
       <c r="B43" s="1">
-        <v>3924.3823000000002</v>
+        <v>4036.6536000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2999.2788999999998</v>
+        <v>3271.6682999999998</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43726</v>
+        <v>43167</v>
       </c>
       <c r="B44" s="1">
-        <v>3910.0837000000001</v>
+        <v>4077.6001000000001</v>
       </c>
       <c r="C44" s="1">
-        <v>2985.6586000000002</v>
+        <v>3288.4054999999998</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43725</v>
+        <v>43168</v>
       </c>
       <c r="B45" s="1">
-        <v>3891.2208000000001</v>
+        <v>4108.8652000000002</v>
       </c>
       <c r="C45" s="1">
-        <v>2978.1178</v>
+        <v>3307.1655999999998</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>43724</v>
+        <v>43171</v>
       </c>
       <c r="B46" s="1">
-        <v>3957.7154</v>
+        <v>4127.6661999999997</v>
       </c>
       <c r="C46" s="1">
-        <v>3030.7543999999998</v>
+        <v>3326.6992</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>43720</v>
+        <v>43172</v>
       </c>
       <c r="B47" s="1">
-        <v>3972.3798999999999</v>
+        <v>4091.2532999999999</v>
       </c>
       <c r="C47" s="1">
-        <v>3031.2350999999999</v>
+        <v>3310.2388999999998</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43719</v>
+        <v>43173</v>
       </c>
       <c r="B48" s="1">
-        <v>3930.0999000000002</v>
+        <v>4073.3447000000001</v>
       </c>
       <c r="C48" s="1">
-        <v>3008.8117999999999</v>
+        <v>3291.3818999999999</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>43718</v>
+        <v>43174</v>
       </c>
       <c r="B49" s="1">
-        <v>3959.2649999999999</v>
+        <v>4096.1626999999999</v>
       </c>
       <c r="C49" s="1">
-        <v>3021.2024000000001</v>
+        <v>3291.1120000000001</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>43717</v>
+        <v>43175</v>
       </c>
       <c r="B50" s="1">
-        <v>3972.9484000000002</v>
+        <v>4056.4225999999999</v>
       </c>
       <c r="C50" s="1">
-        <v>3024.7388000000001</v>
+        <v>3269.8820999999998</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>43714</v>
+        <v>43178</v>
       </c>
       <c r="B51" s="1">
-        <v>3948.5075000000002</v>
+        <v>4074.2478999999998</v>
       </c>
       <c r="C51" s="1">
-        <v>2999.6012999999998</v>
+        <v>3279.2516999999998</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>43713</v>
+        <v>43179</v>
       </c>
       <c r="B52" s="1">
-        <v>3925.3229999999999</v>
+        <v>4077.7040999999999</v>
       </c>
       <c r="C52" s="1">
-        <v>2985.8647999999998</v>
+        <v>3290.6399000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>43712</v>
+        <v>43180</v>
       </c>
       <c r="B53" s="1">
-        <v>3886.0012000000002</v>
+        <v>4061.0502000000001</v>
       </c>
       <c r="C53" s="1">
-        <v>2957.4115999999999</v>
+        <v>3280.9521</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>43711</v>
+        <v>43181</v>
       </c>
       <c r="B54" s="1">
-        <v>3853.6106</v>
+        <v>4020.3490000000002</v>
       </c>
       <c r="C54" s="1">
-        <v>2930.1538</v>
+        <v>3263.4803000000002</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>43710</v>
+        <v>43182</v>
       </c>
       <c r="B55" s="1">
-        <v>3848.3198000000002</v>
+        <v>3904.9355</v>
       </c>
       <c r="C55" s="1">
-        <v>2924.1062999999999</v>
+        <v>3152.7608</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>43707</v>
+        <v>43185</v>
       </c>
       <c r="B56" s="1">
-        <v>3799.5862999999999</v>
+        <v>3879.893</v>
       </c>
       <c r="C56" s="1">
-        <v>2886.2365</v>
+        <v>3133.7217999999998</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>43706</v>
+        <v>43186</v>
       </c>
       <c r="B57" s="1">
-        <v>3790.1867000000002</v>
+        <v>3913.2689</v>
       </c>
       <c r="C57" s="1">
-        <v>2890.9191999999998</v>
+        <v>3166.6487999999999</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>43705</v>
+        <v>43187</v>
       </c>
       <c r="B58" s="1">
-        <v>3802.5844000000002</v>
+        <v>3842.7154999999998</v>
       </c>
       <c r="C58" s="1">
-        <v>2893.7564000000002</v>
+        <v>3122.2894999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>43704</v>
+        <v>43188</v>
       </c>
       <c r="B59" s="1">
-        <v>3816.9459000000002</v>
+        <v>3894.0497999999998</v>
       </c>
       <c r="C59" s="1">
-        <v>2902.1932000000002</v>
+        <v>3160.5306</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>43703</v>
+        <v>43189</v>
       </c>
       <c r="B60" s="1">
-        <v>3765.9105</v>
+        <v>3898.4976999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>2863.5673000000002</v>
+        <v>3168.8966</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>43700</v>
+        <v>43192</v>
       </c>
       <c r="B61" s="1">
-        <v>3820.8638000000001</v>
+        <v>3886.9189000000001</v>
       </c>
       <c r="C61" s="1">
-        <v>2897.4252999999999</v>
+        <v>3163.1790000000001</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>43699</v>
+        <v>43193</v>
       </c>
       <c r="B62" s="1">
-        <v>3793.5061000000001</v>
+        <v>3862.4796000000001</v>
       </c>
       <c r="C62" s="1">
-        <v>2883.4358000000002</v>
+        <v>3136.6332000000002</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>43698</v>
+        <v>43194</v>
       </c>
       <c r="B63" s="1">
-        <v>3781.7579000000001</v>
+        <v>3854.8625000000002</v>
       </c>
       <c r="C63" s="1">
-        <v>2880.3307</v>
+        <v>3131.1113999999998</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>43697</v>
+        <v>43199</v>
       </c>
       <c r="B64" s="1">
-        <v>3787.7323999999999</v>
+        <v>3852.9292</v>
       </c>
       <c r="C64" s="1">
-        <v>2880.0012000000002</v>
+        <v>3138.2936</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>43696</v>
+        <v>43200</v>
       </c>
       <c r="B65" s="1">
-        <v>3791.0945999999999</v>
+        <v>3927.1729</v>
       </c>
       <c r="C65" s="1">
-        <v>2883.096</v>
+        <v>3190.3216000000002</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>43693</v>
+        <v>43201</v>
       </c>
       <c r="B66" s="1">
-        <v>3710.5385999999999</v>
+        <v>3938.3434000000002</v>
       </c>
       <c r="C66" s="1">
-        <v>2823.8238000000001</v>
+        <v>3208.0817999999999</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43692</v>
+        <v>43202</v>
       </c>
       <c r="B67" s="1">
-        <v>3694.0005999999998</v>
+        <v>3898.6354000000001</v>
       </c>
       <c r="C67" s="1">
-        <v>2815.7975999999999</v>
+        <v>3180.1583000000001</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43691</v>
+        <v>43203</v>
       </c>
       <c r="B68" s="1">
-        <v>3682.4014999999999</v>
+        <v>3871.1442999999999</v>
       </c>
       <c r="C68" s="1">
-        <v>2808.9146000000001</v>
+        <v>3159.0520999999999</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43690</v>
+        <v>43206</v>
       </c>
       <c r="B69" s="1">
-        <v>3665.7514999999999</v>
+        <v>3808.8629999999998</v>
       </c>
       <c r="C69" s="1">
-        <v>2797.2595999999999</v>
+        <v>3110.6489000000001</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43689</v>
+        <v>43207</v>
       </c>
       <c r="B70" s="1">
-        <v>3699.1046999999999</v>
+        <v>3748.6412</v>
       </c>
       <c r="C70" s="1">
-        <v>2814.9944</v>
+        <v>3066.7966999999999</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43686</v>
+        <v>43208</v>
       </c>
       <c r="B71" s="1">
-        <v>3633.5295999999998</v>
+        <v>3766.2820000000002</v>
       </c>
       <c r="C71" s="1">
-        <v>2774.7532000000001</v>
+        <v>3091.3987000000002</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>43685</v>
+        <v>43209</v>
       </c>
       <c r="B72" s="1">
-        <v>3669.2936</v>
+        <v>3811.8429999999998</v>
       </c>
       <c r="C72" s="1">
-        <v>2794.5522999999998</v>
+        <v>3117.3760000000002</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>43684</v>
+        <v>43210</v>
       </c>
       <c r="B73" s="1">
-        <v>3621.431</v>
+        <v>3760.8543</v>
       </c>
       <c r="C73" s="1">
-        <v>2768.6795000000002</v>
+        <v>3071.5425</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>43683</v>
+        <v>43213</v>
       </c>
       <c r="B74" s="1">
-        <v>3636.3289</v>
+        <v>3766.3256999999999</v>
       </c>
       <c r="C74" s="1">
-        <v>2777.5558999999998</v>
+        <v>3068.0120000000002</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>43682</v>
+        <v>43214</v>
       </c>
       <c r="B75" s="1">
-        <v>3675.6884</v>
+        <v>3843.4886000000001</v>
       </c>
       <c r="C75" s="1">
-        <v>2821.4956999999999</v>
+        <v>3128.9270999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>43679</v>
+        <v>43215</v>
       </c>
       <c r="B76" s="1">
-        <v>3747.4378999999999</v>
+        <v>3828.7015000000001</v>
       </c>
       <c r="C76" s="1">
-        <v>2867.8375999999998</v>
+        <v>3117.9739</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>43678</v>
+        <v>43216</v>
       </c>
       <c r="B77" s="1">
-        <v>3803.4694</v>
+        <v>3755.4940999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>2908.7660000000001</v>
+        <v>3075.0300999999999</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>43677</v>
+        <v>43217</v>
       </c>
       <c r="B78" s="1">
-        <v>3835.3589000000002</v>
+        <v>3756.8764999999999</v>
       </c>
       <c r="C78" s="1">
-        <v>2932.5057999999999</v>
+        <v>3082.2316000000001</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>43676</v>
+        <v>43222</v>
       </c>
       <c r="B79" s="1">
-        <v>3870.3175999999999</v>
+        <v>3763.6460999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>2952.3382999999999</v>
+        <v>3081.1772999999998</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>43675</v>
+        <v>43223</v>
       </c>
       <c r="B80" s="1">
-        <v>3854.2703999999999</v>
+        <v>3793.0001000000002</v>
       </c>
       <c r="C80" s="1">
-        <v>2941.0070000000001</v>
+        <v>3100.8586</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>43672</v>
+        <v>43224</v>
       </c>
       <c r="B81" s="1">
-        <v>3858.5688</v>
+        <v>3774.5981000000002</v>
       </c>
       <c r="C81" s="1">
-        <v>2944.5410000000002</v>
+        <v>3091.0333999999998</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>43671</v>
+        <v>43227</v>
       </c>
       <c r="B82" s="1">
-        <v>3851.0664999999999</v>
+        <v>3834.1876999999999</v>
       </c>
       <c r="C82" s="1">
-        <v>2937.3600999999999</v>
+        <v>3136.6448</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>43670</v>
+        <v>43228</v>
       </c>
       <c r="B83" s="1">
-        <v>3819.8325</v>
+        <v>3878.6767</v>
       </c>
       <c r="C83" s="1">
-        <v>2923.2775000000001</v>
+        <v>3161.4976000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>43669</v>
+        <v>43229</v>
       </c>
       <c r="B84" s="1">
-        <v>3789.9135000000001</v>
+        <v>3871.6152000000002</v>
       </c>
       <c r="C84" s="1">
-        <v>2899.9445999999998</v>
+        <v>3159.1502</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>43668</v>
+        <v>43230</v>
       </c>
       <c r="B85" s="1">
-        <v>3781.6831999999999</v>
+        <v>3893.0565000000001</v>
       </c>
       <c r="C85" s="1">
-        <v>2886.9740000000002</v>
+        <v>3174.4126999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>43665</v>
+        <v>43231</v>
       </c>
       <c r="B86" s="1">
-        <v>3807.9551000000001</v>
+        <v>3872.8382999999999</v>
       </c>
       <c r="C86" s="1">
-        <v>2924.2006000000001</v>
+        <v>3163.2631999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>43664</v>
+        <v>43234</v>
       </c>
       <c r="B87" s="1">
-        <v>3768.4018999999998</v>
+        <v>3909.2932999999998</v>
       </c>
       <c r="C87" s="1">
-        <v>2901.1765999999998</v>
+        <v>3174.0320000000002</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>43663</v>
+        <v>43235</v>
       </c>
       <c r="B88" s="1">
-        <v>3804.6383999999998</v>
+        <v>3924.0974999999999</v>
       </c>
       <c r="C88" s="1">
-        <v>2931.6925999999999</v>
+        <v>3192.1183000000001</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>43662</v>
+        <v>43236</v>
       </c>
       <c r="B89" s="1">
-        <v>3806.8449000000001</v>
+        <v>3892.8442</v>
       </c>
       <c r="C89" s="1">
-        <v>2937.6167999999998</v>
+        <v>3169.5652</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>43661</v>
+        <v>43237</v>
       </c>
       <c r="B90" s="1">
-        <v>3824.1878000000002</v>
+        <v>3864.0506999999998</v>
       </c>
       <c r="C90" s="1">
-        <v>2942.1853000000001</v>
+        <v>3154.2824999999998</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>43658</v>
+        <v>43238</v>
       </c>
       <c r="B91" s="1">
-        <v>3808.7311</v>
+        <v>3903.0637000000002</v>
       </c>
       <c r="C91" s="1">
-        <v>2930.5462000000002</v>
+        <v>3193.3033999999998</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>43657</v>
+        <v>43241</v>
       </c>
       <c r="B92" s="1">
-        <v>3785.221</v>
+        <v>3921.2420999999999</v>
       </c>
       <c r="C92" s="1">
-        <v>2917.7609000000002</v>
+        <v>3213.8404</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>43656</v>
+        <v>43242</v>
       </c>
       <c r="B93" s="1">
-        <v>3786.739</v>
+        <v>3906.2080999999998</v>
       </c>
       <c r="C93" s="1">
-        <v>2915.3022000000001</v>
+        <v>3214.3497000000002</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>43655</v>
+        <v>43243</v>
       </c>
       <c r="B94" s="1">
-        <v>3793.1297</v>
+        <v>3854.5825</v>
       </c>
       <c r="C94" s="1">
-        <v>2928.2294999999999</v>
+        <v>3168.9641999999999</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>43654</v>
+        <v>43244</v>
       </c>
       <c r="B95" s="1">
-        <v>3802.7896999999998</v>
+        <v>3827.2170000000001</v>
       </c>
       <c r="C95" s="1">
-        <v>2933.3634000000002</v>
+        <v>3154.6505999999999</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>43651</v>
+        <v>43245</v>
       </c>
       <c r="B96" s="1">
-        <v>3893.2024999999999</v>
+        <v>3816.498</v>
       </c>
       <c r="C96" s="1">
-        <v>3011.0587999999998</v>
+        <v>3141.3031999999998</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>43650</v>
+        <v>43248</v>
       </c>
       <c r="B97" s="1">
-        <v>3873.1019000000001</v>
+        <v>3833.2599</v>
       </c>
       <c r="C97" s="1">
-        <v>3005.2487999999998</v>
+        <v>3135.0821000000001</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>43649</v>
+        <v>43249</v>
       </c>
       <c r="B98" s="1">
-        <v>3893.5340999999999</v>
+        <v>3804.0093000000002</v>
       </c>
       <c r="C98" s="1">
-        <v>3015.2633000000001</v>
+        <v>3120.4605000000001</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>43648</v>
+        <v>43250</v>
       </c>
       <c r="B99" s="1">
-        <v>3937.1691000000001</v>
+        <v>3723.3724000000002</v>
       </c>
       <c r="C99" s="1">
-        <v>3043.9427999999998</v>
+        <v>3041.4434000000001</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>43647</v>
+        <v>43251</v>
       </c>
       <c r="B100" s="1">
-        <v>3935.8116</v>
+        <v>3802.3759</v>
       </c>
       <c r="C100" s="1">
-        <v>3044.9027999999998</v>
+        <v>3095.4737</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>43644</v>
+        <v>43252</v>
       </c>
       <c r="B101" s="1">
-        <v>3825.5873000000001</v>
+        <v>3770.5891000000001</v>
       </c>
       <c r="C101" s="1">
-        <v>2978.8784000000001</v>
+        <v>3075.1372000000001</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>43643</v>
+        <v>43255</v>
       </c>
       <c r="B102" s="1">
-        <v>3834.8172</v>
+        <v>3807.5781000000002</v>
       </c>
       <c r="C102" s="1">
-        <v>2996.7926000000002</v>
+        <v>3091.1909000000001</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>43642</v>
+        <v>43256</v>
       </c>
       <c r="B103" s="1">
-        <v>3794.3310000000001</v>
+        <v>3845.3164000000002</v>
       </c>
       <c r="C103" s="1">
-        <v>2976.2837</v>
+        <v>3114.2055</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>43641</v>
+        <v>43257</v>
       </c>
       <c r="B104" s="1">
-        <v>3801.3098</v>
+        <v>3837.3510999999999</v>
       </c>
       <c r="C104" s="1">
-        <v>2982.0738000000001</v>
+        <v>3115.1803</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>43640</v>
+        <v>43258</v>
       </c>
       <c r="B105" s="1">
-        <v>3841.2658999999999</v>
+        <v>3831.0128</v>
       </c>
       <c r="C105" s="1">
-        <v>3008.1478999999999</v>
+        <v>3109.4987999999998</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>43637</v>
+        <v>43259</v>
       </c>
       <c r="B106" s="1">
-        <v>3833.9382999999998</v>
+        <v>3779.6158999999998</v>
       </c>
       <c r="C106" s="1">
-        <v>3001.9802</v>
+        <v>3067.1478000000002</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>43636</v>
+        <v>43262</v>
       </c>
       <c r="B107" s="1">
-        <v>3828.5183000000002</v>
+        <v>3779.9818</v>
       </c>
       <c r="C107" s="1">
-        <v>2987.1185999999998</v>
+        <v>3052.7831000000001</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>43635</v>
+        <v>43263</v>
       </c>
       <c r="B108" s="1">
-        <v>3715.9380999999998</v>
+        <v>3825.9533999999999</v>
       </c>
       <c r="C108" s="1">
-        <v>2917.8029000000001</v>
+        <v>3079.8018000000002</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>43634</v>
+        <v>43264</v>
       </c>
       <c r="B109" s="1">
-        <v>3667.6185</v>
+        <v>3788.3391000000001</v>
       </c>
       <c r="C109" s="1">
-        <v>2890.1579999999999</v>
+        <v>3049.7964999999999</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>43633</v>
+        <v>43265</v>
       </c>
       <c r="B110" s="1">
-        <v>3654.8247999999999</v>
+        <v>3773.3654999999999</v>
       </c>
       <c r="C110" s="1">
-        <v>2887.6221</v>
+        <v>3044.1597000000002</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>43630</v>
+        <v>43266</v>
       </c>
       <c r="B111" s="1">
-        <v>3654.8798999999999</v>
+        <v>3753.4337999999998</v>
       </c>
       <c r="C111" s="1">
-        <v>2881.9742999999999</v>
+        <v>3021.9007999999999</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>43629</v>
+        <v>43270</v>
       </c>
       <c r="B112" s="1">
-        <v>3685.3933000000002</v>
+        <v>3621.1165999999998</v>
       </c>
       <c r="C112" s="1">
-        <v>2910.7406000000001</v>
+        <v>2907.8220999999999</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>43628</v>
+        <v>43271</v>
       </c>
       <c r="B113" s="1">
-        <v>3691.0956999999999</v>
+        <v>3635.4436000000001</v>
       </c>
       <c r="C113" s="1">
-        <v>2909.3796000000002</v>
+        <v>2915.7314000000001</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>43627</v>
+        <v>43272</v>
       </c>
       <c r="B114" s="1">
-        <v>3719.2759000000001</v>
+        <v>3592.9650000000001</v>
       </c>
       <c r="C114" s="1">
-        <v>2925.7161999999998</v>
+        <v>2875.8099000000002</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>43626</v>
+        <v>43273</v>
       </c>
       <c r="B115" s="1">
-        <v>3610.7435</v>
+        <v>3608.9045999999998</v>
       </c>
       <c r="C115" s="1">
-        <v>2852.1302000000001</v>
+        <v>2889.7602999999999</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>43622</v>
+        <v>43276</v>
       </c>
       <c r="B116" s="1">
-        <v>3564.6777999999999</v>
+        <v>3560.4776999999999</v>
       </c>
       <c r="C116" s="1">
-        <v>2827.7977999999998</v>
+        <v>2859.3364000000001</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>43621</v>
+        <v>43277</v>
       </c>
       <c r="B117" s="1">
-        <v>3597.105</v>
+        <v>3531.1111999999998</v>
       </c>
       <c r="C117" s="1">
-        <v>2861.4180999999999</v>
+        <v>2844.5081</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>43620</v>
+        <v>43278</v>
       </c>
       <c r="B118" s="1">
-        <v>3598.4666000000002</v>
+        <v>3459.2620999999999</v>
       </c>
       <c r="C118" s="1">
-        <v>2862.2802999999999</v>
+        <v>2813.1774999999998</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>43619</v>
+        <v>43279</v>
       </c>
       <c r="B119" s="1">
-        <v>3632.0127000000002</v>
+        <v>3423.5255000000002</v>
       </c>
       <c r="C119" s="1">
-        <v>2890.0808999999999</v>
+        <v>2786.8966</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>43616</v>
+        <v>43280</v>
       </c>
       <c r="B120" s="1">
-        <v>3629.7892999999999</v>
+        <v>3510.9845</v>
       </c>
       <c r="C120" s="1">
-        <v>2898.6961000000001</v>
+        <v>2847.4180999999999</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>43615</v>
+        <v>43283</v>
       </c>
       <c r="B121" s="1">
-        <v>3641.1833000000001</v>
+        <v>3407.9638</v>
       </c>
       <c r="C121" s="1">
-        <v>2905.8054000000002</v>
+        <v>2775.5569999999998</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>43614</v>
+        <v>43284</v>
       </c>
       <c r="B122" s="1">
-        <v>3663.9090000000001</v>
+        <v>3409.2800999999999</v>
       </c>
       <c r="C122" s="1">
-        <v>2914.6963999999998</v>
+        <v>2786.8878</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>43613</v>
+        <v>43285</v>
       </c>
       <c r="B123" s="1">
-        <v>3672.2604999999999</v>
+        <v>3363.7473</v>
       </c>
       <c r="C123" s="1">
-        <v>2909.9106000000002</v>
+        <v>2759.1260000000002</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>43612</v>
+        <v>43286</v>
       </c>
       <c r="B124" s="1">
-        <v>3637.1970999999999</v>
+        <v>3342.4378999999999</v>
       </c>
       <c r="C124" s="1">
-        <v>2892.3782000000001</v>
+        <v>2733.8818999999999</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>43609</v>
+        <v>43287</v>
       </c>
       <c r="B125" s="1">
-        <v>3593.9139</v>
+        <v>3365.1226999999999</v>
       </c>
       <c r="C125" s="1">
-        <v>2852.9947999999999</v>
+        <v>2747.2285000000002</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>43608</v>
+        <v>43290</v>
       </c>
       <c r="B126" s="1">
-        <v>3583.9645999999998</v>
+        <v>3459.1837</v>
       </c>
       <c r="C126" s="1">
-        <v>2852.5153</v>
+        <v>2815.1095</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>43607</v>
+        <v>43291</v>
       </c>
       <c r="B127" s="1">
-        <v>3649.3796000000002</v>
+        <v>3467.5155</v>
       </c>
       <c r="C127" s="1">
-        <v>2891.7046</v>
+        <v>2827.6251999999999</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>43606</v>
+        <v>43292</v>
       </c>
       <c r="B128" s="1">
-        <v>3666.7761999999998</v>
+        <v>3407.5297</v>
       </c>
       <c r="C128" s="1">
-        <v>2905.9688000000001</v>
+        <v>2777.7710999999999</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>43605</v>
+        <v>43293</v>
       </c>
       <c r="B129" s="1">
-        <v>3617.7923999999998</v>
+        <v>3481.0558999999998</v>
       </c>
       <c r="C129" s="1">
-        <v>2870.6046000000001</v>
+        <v>2837.6586000000002</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>43602</v>
+        <v>43294</v>
       </c>
       <c r="B130" s="1">
-        <v>3648.7609000000002</v>
+        <v>3492.6896999999999</v>
       </c>
       <c r="C130" s="1">
-        <v>2882.2962000000002</v>
+        <v>2831.1837</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>43601</v>
+        <v>43297</v>
       </c>
       <c r="B131" s="1">
-        <v>3743.9634999999998</v>
+        <v>3472.0859</v>
       </c>
       <c r="C131" s="1">
-        <v>2955.7109999999998</v>
+        <v>2814.0418</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>43600</v>
+        <v>43298</v>
       </c>
       <c r="B132" s="1">
-        <v>3727.0922999999998</v>
+        <v>3449.3773000000001</v>
       </c>
       <c r="C132" s="1">
-        <v>2938.6781000000001</v>
+        <v>2798.1259</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>43599</v>
+        <v>43299</v>
       </c>
       <c r="B133" s="1">
-        <v>3645.1502999999998</v>
+        <v>3431.3227000000002</v>
       </c>
       <c r="C133" s="1">
-        <v>2883.6107000000002</v>
+        <v>2787.2570000000001</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>43598</v>
+        <v>43300</v>
       </c>
       <c r="B134" s="1">
-        <v>3668.7255</v>
+        <v>3428.3429999999998</v>
       </c>
       <c r="C134" s="1">
-        <v>2903.7130999999999</v>
+        <v>2772.5454</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>43595</v>
+        <v>43301</v>
       </c>
       <c r="B135" s="1">
-        <v>3730.4513000000002</v>
+        <v>3492.8937999999998</v>
       </c>
       <c r="C135" s="1">
-        <v>2939.2105999999999</v>
+        <v>2829.2712000000001</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>43594</v>
+        <v>43304</v>
       </c>
       <c r="B136" s="1">
-        <v>3599.7001</v>
+        <v>3525.7503000000002</v>
       </c>
       <c r="C136" s="1">
-        <v>2850.9537</v>
+        <v>2859.5423999999998</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>43593</v>
+        <v>43305</v>
       </c>
       <c r="B137" s="1">
-        <v>3667.4573999999998</v>
+        <v>3581.7057</v>
       </c>
       <c r="C137" s="1">
-        <v>2893.7566999999999</v>
+        <v>2905.5617999999999</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>43592</v>
+        <v>43306</v>
       </c>
       <c r="B138" s="1">
-        <v>3720.6684</v>
+        <v>3577.7521999999999</v>
       </c>
       <c r="C138" s="1">
-        <v>2926.3908000000001</v>
+        <v>2903.6466999999998</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>43591</v>
+        <v>43307</v>
       </c>
       <c r="B139" s="1">
-        <v>3684.6167999999998</v>
+        <v>3536.2456000000002</v>
       </c>
       <c r="C139" s="1">
-        <v>2906.4639999999999</v>
+        <v>2882.2253999999998</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>43585</v>
+        <v>43308</v>
       </c>
       <c r="B140" s="1">
-        <v>3913.2109999999998</v>
+        <v>3521.2269000000001</v>
       </c>
       <c r="C140" s="1">
-        <v>3078.3389000000002</v>
+        <v>2873.5938000000001</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>43584</v>
+        <v>43311</v>
       </c>
       <c r="B141" s="1">
-        <v>3900.3339000000001</v>
+        <v>3515.0794000000001</v>
       </c>
       <c r="C141" s="1">
-        <v>3062.4985000000001</v>
+        <v>2869.0495000000001</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>43581</v>
+        <v>43312</v>
       </c>
       <c r="B142" s="1">
-        <v>3889.2748000000001</v>
+        <v>3517.6568000000002</v>
       </c>
       <c r="C142" s="1">
-        <v>3086.3989000000001</v>
+        <v>2876.4009000000001</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>43580</v>
+        <v>43313</v>
       </c>
       <c r="B143" s="1">
-        <v>3941.8159999999998</v>
+        <v>3447.3881999999999</v>
       </c>
       <c r="C143" s="1">
-        <v>3123.8261000000002</v>
+        <v>2824.5337</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>43579</v>
+        <v>43314</v>
       </c>
       <c r="B144" s="1">
-        <v>4030.0886999999998</v>
+        <v>3370.9578999999999</v>
       </c>
       <c r="C144" s="1">
-        <v>3201.6136999999999</v>
+        <v>2768.0239000000001</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>43578</v>
+        <v>43315</v>
       </c>
       <c r="B145" s="1">
-        <v>4019.0052999999998</v>
+        <v>3315.2838999999999</v>
       </c>
       <c r="C145" s="1">
-        <v>3198.5938000000001</v>
+        <v>2740.4429</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>43577</v>
+        <v>43318</v>
       </c>
       <c r="B146" s="1">
-        <v>4025.6109000000001</v>
+        <v>3273.2728000000002</v>
       </c>
       <c r="C146" s="1">
-        <v>3215.0426000000002</v>
+        <v>2705.1565000000001</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>43574</v>
+        <v>43319</v>
       </c>
       <c r="B147" s="1">
-        <v>4120.6077999999998</v>
+        <v>3368.8694999999998</v>
       </c>
       <c r="C147" s="1">
-        <v>3270.7973000000002</v>
+        <v>2779.3739999999998</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>43573</v>
+        <v>43320</v>
       </c>
       <c r="B148" s="1">
-        <v>4072.0753</v>
+        <v>3314.5075000000002</v>
       </c>
       <c r="C148" s="1">
-        <v>3250.2012</v>
+        <v>2744.0695999999998</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>43572</v>
+        <v>43321</v>
       </c>
       <c r="B149" s="1">
-        <v>4087.2397999999998</v>
+        <v>3397.5297999999998</v>
       </c>
       <c r="C149" s="1">
-        <v>3263.1179000000002</v>
+        <v>2794.3818000000001</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>43571</v>
+        <v>43322</v>
       </c>
       <c r="B150" s="1">
-        <v>4085.7891</v>
+        <v>3405.0191</v>
       </c>
       <c r="C150" s="1">
-        <v>3253.5978</v>
+        <v>2795.3099000000002</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>43570</v>
+        <v>43325</v>
       </c>
       <c r="B151" s="1">
-        <v>3975.5243999999998</v>
+        <v>3390.3440999999998</v>
       </c>
       <c r="C151" s="1">
-        <v>3177.7865999999999</v>
+        <v>2785.8719999999998</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>43567</v>
+        <v>43326</v>
       </c>
       <c r="B152" s="1">
-        <v>3988.6167999999998</v>
+        <v>3372.9137000000001</v>
       </c>
       <c r="C152" s="1">
-        <v>3188.6255999999998</v>
+        <v>2780.9645999999998</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>43566</v>
+        <v>43327</v>
       </c>
       <c r="B153" s="1">
-        <v>3997.5778</v>
+        <v>3291.9760000000001</v>
       </c>
       <c r="C153" s="1">
-        <v>3189.9618999999998</v>
+        <v>2723.2575999999999</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>43565</v>
+        <v>43328</v>
       </c>
       <c r="B154" s="1">
-        <v>4085.8470000000002</v>
+        <v>3276.7276000000002</v>
       </c>
       <c r="C154" s="1">
-        <v>3241.9299000000001</v>
+        <v>2705.1916999999999</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>43564</v>
+        <v>43329</v>
       </c>
       <c r="B155" s="1">
-        <v>4075.4301</v>
+        <v>3229.6197999999999</v>
       </c>
       <c r="C155" s="1">
-        <v>3239.6639</v>
+        <v>2668.9659999999999</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>43563</v>
+        <v>43332</v>
       </c>
       <c r="B156" s="1">
-        <v>4057.2285999999999</v>
+        <v>3267.2498000000001</v>
       </c>
       <c r="C156" s="1">
-        <v>3244.8103000000001</v>
+        <v>2698.4657999999999</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>43559</v>
+        <v>43333</v>
       </c>
       <c r="B157" s="1">
-        <v>4062.2309</v>
+        <v>3326.6489000000001</v>
       </c>
       <c r="C157" s="1">
-        <v>3246.5713999999998</v>
+        <v>2733.8263999999999</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>43558</v>
+        <v>43334</v>
       </c>
       <c r="B158" s="1">
-        <v>4022.1565999999998</v>
+        <v>3307.9544999999998</v>
       </c>
       <c r="C158" s="1">
-        <v>3216.2952</v>
+        <v>2714.6082000000001</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>43557</v>
+        <v>43335</v>
       </c>
       <c r="B159" s="1">
-        <v>3971.2851999999998</v>
+        <v>3320.0257000000001</v>
       </c>
       <c r="C159" s="1">
-        <v>3176.8227000000002</v>
+        <v>2724.6244000000002</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>43556</v>
+        <v>43336</v>
       </c>
       <c r="B160" s="1">
-        <v>3973.9279999999999</v>
+        <v>3325.3346999999999</v>
       </c>
       <c r="C160" s="1">
-        <v>3170.3609999999999</v>
+        <v>2729.4308000000001</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>43553</v>
+        <v>43339</v>
       </c>
       <c r="B161" s="1">
-        <v>3872.3411999999998</v>
+        <v>3406.5735</v>
       </c>
       <c r="C161" s="1">
-        <v>3090.7579999999998</v>
+        <v>2780.8989999999999</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>43552</v>
+        <v>43340</v>
       </c>
       <c r="B162" s="1">
-        <v>3728.3953000000001</v>
+        <v>3400.1705000000002</v>
       </c>
       <c r="C162" s="1">
-        <v>2994.9434000000001</v>
+        <v>2777.9807999999998</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>43551</v>
+        <v>43341</v>
       </c>
       <c r="B163" s="1">
-        <v>3743.3878</v>
+        <v>3386.5736000000002</v>
       </c>
       <c r="C163" s="1">
-        <v>3022.7195999999999</v>
+        <v>2769.2946999999999</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>43550</v>
+        <v>43342</v>
       </c>
       <c r="B164" s="1">
-        <v>3700.4387999999999</v>
+        <v>3351.0942</v>
       </c>
       <c r="C164" s="1">
-        <v>2997.0954000000002</v>
+        <v>2737.7366999999999</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>43549</v>
+        <v>43343</v>
       </c>
       <c r="B165" s="1">
-        <v>3742.8252000000002</v>
+        <v>3334.5036</v>
       </c>
       <c r="C165" s="1">
-        <v>3043.0313000000001</v>
+        <v>2725.2498999999998</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>43546</v>
+        <v>43346</v>
       </c>
       <c r="B166" s="1">
-        <v>3833.8013000000001</v>
+        <v>3321.8247999999999</v>
       </c>
       <c r="C166" s="1">
-        <v>3104.1487000000002</v>
+        <v>2720.7343999999998</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>43545</v>
+        <v>43347</v>
       </c>
       <c r="B167" s="1">
-        <v>3836.8912999999998</v>
+        <v>3363.8984</v>
       </c>
       <c r="C167" s="1">
-        <v>3101.4549999999999</v>
+        <v>2750.5803999999998</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>43544</v>
+        <v>43348</v>
       </c>
       <c r="B168" s="1">
-        <v>3835.4396999999999</v>
+        <v>3298.1412</v>
       </c>
       <c r="C168" s="1">
-        <v>3090.6403</v>
+        <v>2704.3368</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>43543</v>
+        <v>43349</v>
       </c>
       <c r="B169" s="1">
-        <v>3833.9625999999998</v>
+        <v>3262.8807999999999</v>
       </c>
       <c r="C169" s="1">
-        <v>3090.9749999999999</v>
+        <v>2691.5929000000001</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>43542</v>
+        <v>43350</v>
       </c>
       <c r="B170" s="1">
-        <v>3851.7478999999998</v>
+        <v>3277.6437999999998</v>
       </c>
       <c r="C170" s="1">
-        <v>3096.4176000000002</v>
+        <v>2702.3006999999998</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>43539</v>
+        <v>43353</v>
       </c>
       <c r="B171" s="1">
-        <v>3745.0050000000001</v>
+        <v>3230.0681</v>
       </c>
       <c r="C171" s="1">
-        <v>3021.7512000000002</v>
+        <v>2669.4845</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>43538</v>
+        <v>43354</v>
       </c>
       <c r="B172" s="1">
-        <v>3698.4857999999999</v>
+        <v>3224.2116000000001</v>
       </c>
       <c r="C172" s="1">
-        <v>2990.6849999999999</v>
+        <v>2664.7997</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>43537</v>
+        <v>43355</v>
       </c>
       <c r="B173" s="1">
-        <v>3724.1941000000002</v>
+        <v>3202.0248000000001</v>
       </c>
       <c r="C173" s="1">
-        <v>3026.9513000000002</v>
+        <v>2656.1100999999999</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>43536</v>
+        <v>43356</v>
       </c>
       <c r="B174" s="1">
-        <v>3755.3519000000001</v>
+        <v>3236.5662000000002</v>
       </c>
       <c r="C174" s="1">
-        <v>3060.3072999999999</v>
+        <v>2686.5783999999999</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>43535</v>
+        <v>43357</v>
       </c>
       <c r="B175" s="1">
-        <v>3729.9546</v>
+        <v>3242.0902000000001</v>
       </c>
       <c r="C175" s="1">
-        <v>3026.9924999999998</v>
+        <v>2681.6430999999998</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>43532</v>
+        <v>43360</v>
       </c>
       <c r="B176" s="1">
-        <v>3657.5790000000002</v>
+        <v>3204.9223999999999</v>
       </c>
       <c r="C176" s="1">
-        <v>2969.8613999999998</v>
+        <v>2651.7885999999999</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>43531</v>
+        <v>43361</v>
       </c>
       <c r="B177" s="1">
-        <v>3808.8497000000002</v>
+        <v>3269.4319</v>
       </c>
       <c r="C177" s="1">
-        <v>3106.4178999999999</v>
+        <v>2699.9501</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>43530</v>
+        <v>43362</v>
       </c>
       <c r="B178" s="1">
-        <v>3848.0902999999998</v>
+        <v>3312.4823000000001</v>
       </c>
       <c r="C178" s="1">
-        <v>3102.0990999999999</v>
+        <v>2730.8503000000001</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>43529</v>
+        <v>43363</v>
       </c>
       <c r="B179" s="1">
-        <v>3816.0131999999999</v>
+        <v>3310.1257999999998</v>
       </c>
       <c r="C179" s="1">
-        <v>3054.2465999999999</v>
+        <v>2729.2438000000002</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>43528</v>
+        <v>43364</v>
       </c>
       <c r="B180" s="1">
-        <v>3794.1039999999998</v>
+        <v>3410.4856</v>
       </c>
       <c r="C180" s="1">
-        <v>3027.5754999999999</v>
+        <v>2797.4848000000002</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>43525</v>
+        <v>43368</v>
       </c>
       <c r="B181" s="1">
-        <v>3749.7143000000001</v>
+        <v>3379.8042999999998</v>
       </c>
       <c r="C181" s="1">
-        <v>2994.0050000000001</v>
+        <v>2781.1385</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>43524</v>
+        <v>43369</v>
       </c>
       <c r="B182" s="1">
-        <v>3669.3703</v>
+        <v>3417.2413000000001</v>
       </c>
       <c r="C182" s="1">
-        <v>2940.9537999999998</v>
+        <v>2806.8132999999998</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>43523</v>
+        <v>43370</v>
       </c>
       <c r="B183" s="1">
-        <v>3678.3921</v>
+        <v>3403.5902000000001</v>
       </c>
       <c r="C183" s="1">
-        <v>2953.8242</v>
+        <v>2791.7748000000001</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>43522</v>
+        <v>43371</v>
       </c>
       <c r="B184" s="1">
-        <v>3684.6934999999999</v>
+        <v>3438.8649</v>
       </c>
       <c r="C184" s="1">
-        <v>2941.5162999999998</v>
+        <v>2821.3501000000001</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>43521</v>
+        <v>43381</v>
       </c>
       <c r="B185" s="1">
-        <v>3729.4830999999999</v>
+        <v>3290.8987999999999</v>
       </c>
       <c r="C185" s="1">
-        <v>2961.2833999999998</v>
+        <v>2716.5104000000001</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>43518</v>
+        <v>43382</v>
       </c>
       <c r="B186" s="1">
-        <v>3520.1181999999999</v>
+        <v>3288.6905999999999</v>
       </c>
       <c r="C186" s="1">
-        <v>2804.2262000000001</v>
+        <v>2721.0129999999999</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>43517</v>
+        <v>43383</v>
       </c>
       <c r="B187" s="1">
-        <v>3442.7055999999998</v>
+        <v>3281.5978</v>
       </c>
       <c r="C187" s="1">
-        <v>2751.8011999999999</v>
+        <v>2725.8366999999998</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>43516</v>
+        <v>43384</v>
       </c>
       <c r="B188" s="1">
-        <v>3451.9272999999998</v>
+        <v>3124.1138999999998</v>
       </c>
       <c r="C188" s="1">
-        <v>2761.2188999999998</v>
+        <v>2583.4575</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>43515</v>
+        <v>43385</v>
       </c>
       <c r="B189" s="1">
-        <v>3439.6078000000002</v>
+        <v>3170.7262000000001</v>
       </c>
       <c r="C189" s="1">
-        <v>2755.6459</v>
+        <v>2606.9124999999999</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>43514</v>
+        <v>43388</v>
       </c>
       <c r="B190" s="1">
-        <v>3445.7447999999999</v>
+        <v>3126.4515999999999</v>
       </c>
       <c r="C190" s="1">
-        <v>2754.3566000000001</v>
+        <v>2568.0983999999999</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>43511</v>
+        <v>43389</v>
       </c>
       <c r="B191" s="1">
-        <v>3338.7046999999998</v>
+        <v>3100.9738000000002</v>
       </c>
       <c r="C191" s="1">
-        <v>2682.3850000000002</v>
+        <v>2546.3296</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>43510</v>
+        <v>43390</v>
       </c>
       <c r="B192" s="1">
-        <v>3402.1403</v>
+        <v>3118.2462999999998</v>
       </c>
       <c r="C192" s="1">
-        <v>2719.6999000000001</v>
+        <v>2561.614</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>43509</v>
+        <v>43391</v>
       </c>
       <c r="B193" s="1">
-        <v>3397.0275999999999</v>
+        <v>3044.3917999999999</v>
       </c>
       <c r="C193" s="1">
-        <v>2721.0682999999999</v>
+        <v>2486.4186</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>43508</v>
+        <v>43392</v>
       </c>
       <c r="B194" s="1">
-        <v>3330.3353000000002</v>
+        <v>3134.9454999999998</v>
       </c>
       <c r="C194" s="1">
-        <v>2671.8937000000001</v>
+        <v>2550.4652000000001</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>43507</v>
+        <v>43395</v>
       </c>
       <c r="B195" s="1">
-        <v>3306.4724999999999</v>
+        <v>3270.2732000000001</v>
       </c>
       <c r="C195" s="1">
-        <v>2653.8960000000002</v>
+        <v>2654.8762000000002</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>43497</v>
+        <v>43396</v>
       </c>
       <c r="B196" s="1">
-        <v>3247.3971000000001</v>
+        <v>3183.4256999999998</v>
       </c>
       <c r="C196" s="1">
-        <v>2618.2323000000001</v>
+        <v>2594.8254999999999</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>43496</v>
+        <v>43397</v>
       </c>
       <c r="B197" s="1">
-        <v>3201.6331</v>
+        <v>3188.2017999999998</v>
       </c>
       <c r="C197" s="1">
-        <v>2584.5724</v>
+        <v>2603.2950999999998</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>43495</v>
+        <v>43398</v>
       </c>
       <c r="B198" s="1">
-        <v>3168.4829</v>
+        <v>3194.3083999999999</v>
       </c>
       <c r="C198" s="1">
-        <v>2575.5756000000001</v>
+        <v>2603.7995000000001</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>43494</v>
+        <v>43399</v>
       </c>
       <c r="B199" s="1">
-        <v>3193.9697999999999</v>
+        <v>3173.6350000000002</v>
       </c>
       <c r="C199" s="1">
-        <v>2594.2536</v>
+        <v>2598.8467999999998</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>43493</v>
+        <v>43402</v>
       </c>
       <c r="B200" s="1">
-        <v>3183.7777000000001</v>
+        <v>3076.8888999999999</v>
       </c>
       <c r="C200" s="1">
-        <v>2596.9767000000002</v>
+        <v>2542.1033000000002</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>43490</v>
+        <v>43403</v>
       </c>
       <c r="B201" s="1">
-        <v>3184.4695999999999</v>
+        <v>3110.2604999999999</v>
       </c>
       <c r="C201" s="1">
-        <v>2601.7233999999999</v>
+        <v>2568.0481</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>43489</v>
+        <v>43404</v>
       </c>
       <c r="B202" s="1">
-        <v>3158.7817</v>
+        <v>3153.8234000000002</v>
       </c>
       <c r="C202" s="1">
-        <v>2591.6934999999999</v>
+        <v>2602.7831999999999</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>43488</v>
+        <v>43405</v>
       </c>
       <c r="B203" s="1">
-        <v>3141.0531999999998</v>
+        <v>3177.0338000000002</v>
       </c>
       <c r="C203" s="1">
-        <v>2581.0041000000001</v>
+        <v>2606.2372</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>43487</v>
+        <v>43406</v>
       </c>
       <c r="B204" s="1">
-        <v>3143.3171000000002</v>
+        <v>3290.2455</v>
       </c>
       <c r="C204" s="1">
-        <v>2579.7040999999999</v>
+        <v>2676.4762000000001</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>43486</v>
+        <v>43409</v>
       </c>
       <c r="B205" s="1">
-        <v>3185.6363999999999</v>
+        <v>3262.8350999999998</v>
       </c>
       <c r="C205" s="1">
-        <v>2610.5093999999999</v>
+        <v>2665.4306000000001</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>43483</v>
+        <v>43410</v>
       </c>
       <c r="B206" s="1">
-        <v>3168.1738999999998</v>
+        <v>3243.1504</v>
       </c>
       <c r="C206" s="1">
-        <v>2596.0056</v>
+        <v>2659.3564000000001</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>43482</v>
+        <v>43411</v>
       </c>
       <c r="B207" s="1">
-        <v>3111.4168</v>
+        <v>3221.9101000000001</v>
       </c>
       <c r="C207" s="1">
-        <v>2559.6370000000002</v>
+        <v>2641.3420000000001</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>43481</v>
+        <v>43412</v>
       </c>
       <c r="B208" s="1">
-        <v>3128.6516999999999</v>
+        <v>3212.7737000000002</v>
       </c>
       <c r="C208" s="1">
-        <v>2570.4220999999998</v>
+        <v>2635.6322</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>43480</v>
+        <v>43413</v>
       </c>
       <c r="B209" s="1">
-        <v>3127.9904000000001</v>
+        <v>3167.4441999999999</v>
       </c>
       <c r="C209" s="1">
-        <v>2570.3449000000001</v>
+        <v>2598.8715000000002</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>43479</v>
+        <v>43416</v>
       </c>
       <c r="B210" s="1">
-        <v>3067.7845000000002</v>
+        <v>3205.1406999999999</v>
       </c>
       <c r="C210" s="1">
-        <v>2535.7653</v>
+        <v>2630.5194999999999</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>43476</v>
+        <v>43417</v>
       </c>
       <c r="B211" s="1">
-        <v>3094.7782000000002</v>
+        <v>3237.3823000000002</v>
       </c>
       <c r="C211" s="1">
-        <v>2553.8312999999998</v>
+        <v>2654.8795</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>43475</v>
+        <v>43418</v>
       </c>
       <c r="B212" s="1">
-        <v>3072.6864</v>
+        <v>3204.9427000000001</v>
       </c>
       <c r="C212" s="1">
-        <v>2535.0985000000001</v>
+        <v>2632.2424999999998</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>43474</v>
+        <v>43419</v>
       </c>
       <c r="B213" s="1">
-        <v>3078.4758999999999</v>
+        <v>3242.3715000000002</v>
       </c>
       <c r="C213" s="1">
-        <v>2544.3449000000001</v>
+        <v>2668.1704</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>43473</v>
+        <v>43420</v>
       </c>
       <c r="B214" s="1">
-        <v>3047.7035000000001</v>
+        <v>3257.6734999999999</v>
       </c>
       <c r="C214" s="1">
-        <v>2526.4621999999999</v>
+        <v>2679.1097</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>43472</v>
+        <v>43423</v>
       </c>
       <c r="B215" s="1">
-        <v>3054.3029999999999</v>
+        <v>3294.6030999999998</v>
       </c>
       <c r="C215" s="1">
-        <v>2533.0886999999998</v>
+        <v>2703.5115999999998</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>43469</v>
+        <v>43424</v>
       </c>
       <c r="B216" s="1">
-        <v>3035.8741</v>
+        <v>3218.4076</v>
       </c>
       <c r="C216" s="1">
-        <v>2514.8681999999999</v>
+        <v>2645.8544999999999</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>43468</v>
+        <v>43425</v>
       </c>
       <c r="B217" s="1">
-        <v>2964.8420999999998</v>
+        <v>3226.4917999999998</v>
       </c>
       <c r="C217" s="1">
-        <v>2464.3627999999999</v>
+        <v>2651.5052999999998</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>43467</v>
+        <v>43426</v>
       </c>
       <c r="B218" s="1">
-        <v>2969.5353</v>
+        <v>3214.4272999999998</v>
       </c>
       <c r="C218" s="1">
-        <v>2465.2910000000002</v>
+        <v>2645.4339</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>43462</v>
+        <v>43427</v>
       </c>
       <c r="B219" s="1">
-        <v>3010.6536000000001</v>
+        <v>3143.4751999999999</v>
       </c>
       <c r="C219" s="1">
-        <v>2493.8962000000001</v>
+        <v>2579.4830999999999</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>43461</v>
+        <v>43430</v>
       </c>
       <c r="B220" s="1">
-        <v>2990.5057000000002</v>
+        <v>3141.2433999999998</v>
       </c>
       <c r="C220" s="1">
-        <v>2483.0864000000001</v>
+        <v>2575.8101000000001</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>43460</v>
+        <v>43431</v>
       </c>
       <c r="B221" s="1">
-        <v>3002.0327000000002</v>
+        <v>3137.2413000000001</v>
       </c>
       <c r="C221" s="1">
-        <v>2498.2939000000001</v>
+        <v>2574.6792</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>43459</v>
+        <v>43432</v>
       </c>
       <c r="B222" s="1">
-        <v>3017.2815000000001</v>
+        <v>3178.9326000000001</v>
       </c>
       <c r="C222" s="1">
-        <v>2504.819</v>
+        <v>2601.7365</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>43458</v>
+        <v>43433</v>
       </c>
       <c r="B223" s="1">
-        <v>3038.1981000000001</v>
+        <v>3137.6541999999999</v>
       </c>
       <c r="C223" s="1">
-        <v>2527.0070999999998</v>
+        <v>2567.4434000000001</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>43455</v>
+        <v>43434</v>
       </c>
       <c r="B224" s="1">
-        <v>3029.3951000000002</v>
+        <v>3172.69</v>
       </c>
       <c r="C224" s="1">
-        <v>2516.2505999999998</v>
+        <v>2588.1875</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>43454</v>
+        <v>43437</v>
       </c>
       <c r="B225" s="1">
-        <v>3067.4169000000002</v>
+        <v>3260.9502000000002</v>
       </c>
       <c r="C225" s="1">
-        <v>2536.2674999999999</v>
+        <v>2654.7979999999998</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>43453</v>
+        <v>43438</v>
       </c>
       <c r="B226" s="1">
-        <v>3091.1255000000001</v>
+        <v>3267.7094999999999</v>
       </c>
       <c r="C226" s="1">
-        <v>2549.5634</v>
+        <v>2665.9576999999999</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>43452</v>
+        <v>43439</v>
       </c>
       <c r="B227" s="1">
-        <v>3128.4265</v>
+        <v>3252.0041000000001</v>
       </c>
       <c r="C227" s="1">
-        <v>2576.6495</v>
+        <v>2649.8051</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>43451</v>
+        <v>43440</v>
       </c>
       <c r="B228" s="1">
-        <v>3161.1966000000002</v>
+        <v>3181.6729999999998</v>
       </c>
       <c r="C228" s="1">
-        <v>2597.9737</v>
+        <v>2605.1813000000002</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>43448</v>
+        <v>43441</v>
       </c>
       <c r="B229" s="1">
-        <v>3165.9108999999999</v>
+        <v>3181.5646000000002</v>
       </c>
       <c r="C229" s="1">
-        <v>2593.7406999999998</v>
+        <v>2605.8876</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>43447</v>
+        <v>43444</v>
       </c>
       <c r="B230" s="1">
-        <v>3219.6923999999999</v>
+        <v>3144.7631000000001</v>
       </c>
       <c r="C230" s="1">
-        <v>2634.0491000000002</v>
+        <v>2584.5821999999998</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>43446</v>
+        <v>43445</v>
       </c>
       <c r="B231" s="1">
-        <v>3170.6091999999999</v>
+        <v>3159.8157999999999</v>
       </c>
       <c r="C231" s="1">
-        <v>2602.1525999999999</v>
+        <v>2594.0880999999999</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>43445</v>
+        <v>43446</v>
       </c>
       <c r="B232" s="1">
-        <v>3159.8157999999999</v>
+        <v>3170.6091999999999</v>
       </c>
       <c r="C232" s="1">
-        <v>2594.0880999999999</v>
+        <v>2602.1525999999999</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>43444</v>
+        <v>43447</v>
       </c>
       <c r="B233" s="1">
-        <v>3144.7631000000001</v>
+        <v>3219.6923999999999</v>
       </c>
       <c r="C233" s="1">
-        <v>2584.5821999999998</v>
+        <v>2634.0491000000002</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>43441</v>
+        <v>43448</v>
       </c>
       <c r="B234" s="1">
-        <v>3181.5646000000002</v>
+        <v>3165.9108999999999</v>
       </c>
       <c r="C234" s="1">
-        <v>2605.8876</v>
+        <v>2593.7406999999998</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>43440</v>
+        <v>43451</v>
       </c>
       <c r="B235" s="1">
-        <v>3181.6729999999998</v>
+        <v>3161.1966000000002</v>
       </c>
       <c r="C235" s="1">
-        <v>2605.1813000000002</v>
+        <v>2597.9737</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>43439</v>
+        <v>43452</v>
       </c>
       <c r="B236" s="1">
-        <v>3252.0041000000001</v>
+        <v>3128.4265</v>
       </c>
       <c r="C236" s="1">
-        <v>2649.8051</v>
+        <v>2576.6495</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>43438</v>
+        <v>43453</v>
       </c>
       <c r="B237" s="1">
-        <v>3267.7094999999999</v>
+        <v>3091.1255000000001</v>
       </c>
       <c r="C237" s="1">
-        <v>2665.9576999999999</v>
+        <v>2549.5634</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>43437</v>
+        <v>43454</v>
       </c>
       <c r="B238" s="1">
-        <v>3260.9502000000002</v>
+        <v>3067.4169000000002</v>
       </c>
       <c r="C238" s="1">
-        <v>2654.7979999999998</v>
+        <v>2536.2674999999999</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>43434</v>
+        <v>43455</v>
       </c>
       <c r="B239" s="1">
-        <v>3172.69</v>
+        <v>3029.3951000000002</v>
       </c>
       <c r="C239" s="1">
-        <v>2588.1875</v>
+        <v>2516.2505999999998</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>43433</v>
+        <v>43458</v>
       </c>
       <c r="B240" s="1">
-        <v>3137.6541999999999</v>
+        <v>3038.1981000000001</v>
       </c>
       <c r="C240" s="1">
-        <v>2567.4434000000001</v>
+        <v>2527.0070999999998</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>43432</v>
+        <v>43459</v>
       </c>
       <c r="B241" s="1">
-        <v>3178.9326000000001</v>
+        <v>3017.2815000000001</v>
       </c>
       <c r="C241" s="1">
-        <v>2601.7365</v>
+        <v>2504.819</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>43431</v>
+        <v>43460</v>
       </c>
       <c r="B242" s="1">
-        <v>3137.2413000000001</v>
+        <v>3002.0327000000002</v>
       </c>
       <c r="C242" s="1">
-        <v>2574.6792</v>
+        <v>2498.2939000000001</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>43430</v>
+        <v>43461</v>
       </c>
       <c r="B243" s="1">
-        <v>3141.2433999999998</v>
+        <v>2990.5057000000002</v>
       </c>
       <c r="C243" s="1">
-        <v>2575.8101000000001</v>
+        <v>2483.0864000000001</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>43427</v>
+        <v>43462</v>
       </c>
       <c r="B244" s="1">
-        <v>3143.4751999999999</v>
+        <v>3010.6536000000001</v>
       </c>
       <c r="C244" s="1">
-        <v>2579.4830999999999</v>
+        <v>2493.8962000000001</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>43426</v>
+        <v>43467</v>
       </c>
       <c r="B245" s="1">
-        <v>3214.4272999999998</v>
+        <v>2969.5353</v>
       </c>
       <c r="C245" s="1">
-        <v>2645.4339</v>
+        <v>2465.2910000000002</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>43425</v>
+        <v>43468</v>
       </c>
       <c r="B246" s="1">
-        <v>3226.4917999999998</v>
+        <v>2964.8420999999998</v>
       </c>
       <c r="C246" s="1">
-        <v>2651.5052999999998</v>
+        <v>2464.3627999999999</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>43424</v>
+        <v>43469</v>
       </c>
       <c r="B247" s="1">
-        <v>3218.4076</v>
+        <v>3035.8741</v>
       </c>
       <c r="C247" s="1">
-        <v>2645.8544999999999</v>
+        <v>2514.8681999999999</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>43423</v>
+        <v>43472</v>
       </c>
       <c r="B248" s="1">
-        <v>3294.6030999999998</v>
+        <v>3054.3029999999999</v>
       </c>
       <c r="C248" s="1">
-        <v>2703.5115999999998</v>
+        <v>2533.0886999999998</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>43420</v>
+        <v>43473</v>
       </c>
       <c r="B249" s="1">
-        <v>3257.6734999999999</v>
+        <v>3047.7035000000001</v>
       </c>
       <c r="C249" s="1">
-        <v>2679.1097</v>
+        <v>2526.4621999999999</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>43419</v>
+        <v>43474</v>
       </c>
       <c r="B250" s="1">
-        <v>3242.3715000000002</v>
+        <v>3078.4758999999999</v>
       </c>
       <c r="C250" s="1">
-        <v>2668.1704</v>
+        <v>2544.3449000000001</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>43418</v>
+        <v>43475</v>
       </c>
       <c r="B251" s="1">
-        <v>3204.9427000000001</v>
+        <v>3072.6864</v>
       </c>
       <c r="C251" s="1">
-        <v>2632.2424999999998</v>
+        <v>2535.0985000000001</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>43417</v>
+        <v>43476</v>
       </c>
       <c r="B252" s="1">
-        <v>3237.3823000000002</v>
+        <v>3094.7782000000002</v>
       </c>
       <c r="C252" s="1">
-        <v>2654.8795</v>
+        <v>2553.8312999999998</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>43416</v>
+        <v>43479</v>
       </c>
       <c r="B253" s="1">
-        <v>3205.1406999999999</v>
+        <v>3067.7845000000002</v>
       </c>
       <c r="C253" s="1">
-        <v>2630.5194999999999</v>
+        <v>2535.7653</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>43413</v>
+        <v>43480</v>
       </c>
       <c r="B254" s="1">
-        <v>3167.4441999999999</v>
+        <v>3127.9904000000001</v>
       </c>
       <c r="C254" s="1">
-        <v>2598.8715000000002</v>
+        <v>2570.3449000000001</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>43412</v>
+        <v>43481</v>
       </c>
       <c r="B255" s="1">
-        <v>3212.7737000000002</v>
+        <v>3128.6516999999999</v>
       </c>
       <c r="C255" s="1">
-        <v>2635.6322</v>
+        <v>2570.4220999999998</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>43411</v>
+        <v>43482</v>
       </c>
       <c r="B256" s="1">
-        <v>3221.9101000000001</v>
+        <v>3111.4168</v>
       </c>
       <c r="C256" s="1">
-        <v>2641.3420000000001</v>
+        <v>2559.6370000000002</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>43410</v>
+        <v>43483</v>
       </c>
       <c r="B257" s="1">
-        <v>3243.1504</v>
+        <v>3168.1738999999998</v>
       </c>
       <c r="C257" s="1">
-        <v>2659.3564000000001</v>
+        <v>2596.0056</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>43409</v>
+        <v>43486</v>
       </c>
       <c r="B258" s="1">
-        <v>3262.8350999999998</v>
+        <v>3185.6363999999999</v>
       </c>
       <c r="C258" s="1">
-        <v>2665.4306000000001</v>
+        <v>2610.5093999999999</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>43406</v>
+        <v>43487</v>
       </c>
       <c r="B259" s="1">
-        <v>3290.2455</v>
+        <v>3143.3171000000002</v>
       </c>
       <c r="C259" s="1">
-        <v>2676.4762000000001</v>
+        <v>2579.7040999999999</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>43405</v>
+        <v>43488</v>
       </c>
       <c r="B260" s="1">
-        <v>3177.0338000000002</v>
+        <v>3141.0531999999998</v>
       </c>
       <c r="C260" s="1">
-        <v>2606.2372</v>
+        <v>2581.0041000000001</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>43404</v>
+        <v>43489</v>
       </c>
       <c r="B261" s="1">
-        <v>3153.8234000000002</v>
+        <v>3158.7817</v>
       </c>
       <c r="C261" s="1">
-        <v>2602.7831999999999</v>
+        <v>2591.6934999999999</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>43403</v>
+        <v>43490</v>
       </c>
       <c r="B262" s="1">
-        <v>3110.2604999999999</v>
+        <v>3184.4695999999999</v>
       </c>
       <c r="C262" s="1">
-        <v>2568.0481</v>
+        <v>2601.7233999999999</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>43402</v>
+        <v>43493</v>
       </c>
       <c r="B263" s="1">
-        <v>3076.8888999999999</v>
+        <v>3183.7777000000001</v>
       </c>
       <c r="C263" s="1">
-        <v>2542.1033000000002</v>
+        <v>2596.9767000000002</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>43399</v>
+        <v>43494</v>
       </c>
       <c r="B264" s="1">
-        <v>3173.6350000000002</v>
+        <v>3193.9697999999999</v>
       </c>
       <c r="C264" s="1">
-        <v>2598.8467999999998</v>
+        <v>2594.2536</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>43398</v>
+        <v>43495</v>
       </c>
       <c r="B265" s="1">
-        <v>3194.3083999999999</v>
+        <v>3168.4829</v>
       </c>
       <c r="C265" s="1">
-        <v>2603.7995000000001</v>
+        <v>2575.5756000000001</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>43397</v>
+        <v>43496</v>
       </c>
       <c r="B266" s="1">
-        <v>3188.2017999999998</v>
+        <v>3201.6331</v>
       </c>
       <c r="C266" s="1">
-        <v>2603.2950999999998</v>
+        <v>2584.5724</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>43396</v>
+        <v>43497</v>
       </c>
       <c r="B267" s="1">
-        <v>3183.4256999999998</v>
+        <v>3247.3971000000001</v>
       </c>
       <c r="C267" s="1">
-        <v>2594.8254999999999</v>
+        <v>2618.2323000000001</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>43395</v>
+        <v>43507</v>
       </c>
       <c r="B268" s="1">
-        <v>3270.2732000000001</v>
+        <v>3306.4724999999999</v>
       </c>
       <c r="C268" s="1">
-        <v>2654.8762000000002</v>
+        <v>2653.8960000000002</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>43392</v>
+        <v>43508</v>
       </c>
       <c r="B269" s="1">
-        <v>3134.9454999999998</v>
+        <v>3330.3353000000002</v>
       </c>
       <c r="C269" s="1">
-        <v>2550.4652000000001</v>
+        <v>2671.8937000000001</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>43391</v>
+        <v>43509</v>
       </c>
       <c r="B270" s="1">
-        <v>3044.3917999999999</v>
+        <v>3397.0275999999999</v>
       </c>
       <c r="C270" s="1">
-        <v>2486.4186</v>
+        <v>2721.0682999999999</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>43390</v>
+        <v>43510</v>
       </c>
       <c r="B271" s="1">
-        <v>3118.2462999999998</v>
+        <v>3402.1403</v>
       </c>
       <c r="C271" s="1">
-        <v>2561.614</v>
+        <v>2719.6999000000001</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>43389</v>
+        <v>43511</v>
       </c>
       <c r="B272" s="1">
-        <v>3100.9738000000002</v>
+        <v>3338.7046999999998</v>
       </c>
       <c r="C272" s="1">
-        <v>2546.3296</v>
+        <v>2682.3850000000002</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>43388</v>
+        <v>43514</v>
       </c>
       <c r="B273" s="1">
-        <v>3126.4515999999999</v>
+        <v>3445.7447999999999</v>
       </c>
       <c r="C273" s="1">
-        <v>2568.0983999999999</v>
+        <v>2754.3566000000001</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>43385</v>
+        <v>43515</v>
       </c>
       <c r="B274" s="1">
-        <v>3170.7262000000001</v>
+        <v>3439.6078000000002</v>
       </c>
       <c r="C274" s="1">
-        <v>2606.9124999999999</v>
+        <v>2755.6459</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>43384</v>
+        <v>43516</v>
       </c>
       <c r="B275" s="1">
-        <v>3124.1138999999998</v>
+        <v>3451.9272999999998</v>
       </c>
       <c r="C275" s="1">
-        <v>2583.4575</v>
+        <v>2761.2188999999998</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>43383</v>
+        <v>43517</v>
       </c>
       <c r="B276" s="1">
-        <v>3281.5978</v>
+        <v>3442.7055999999998</v>
       </c>
       <c r="C276" s="1">
-        <v>2725.8366999999998</v>
+        <v>2751.8011999999999</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <v>43382</v>
+        <v>43518</v>
       </c>
       <c r="B277" s="1">
-        <v>3288.6905999999999</v>
+        <v>3520.1181999999999</v>
       </c>
       <c r="C277" s="1">
-        <v>2721.0129999999999</v>
+        <v>2804.2262000000001</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>43381</v>
+        <v>43521</v>
       </c>
       <c r="B278" s="1">
-        <v>3290.8987999999999</v>
+        <v>3729.4830999999999</v>
       </c>
       <c r="C278" s="1">
-        <v>2716.5104000000001</v>
+        <v>2961.2833999999998</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>43371</v>
+        <v>43522</v>
       </c>
       <c r="B279" s="1">
-        <v>3438.8649</v>
+        <v>3684.6934999999999</v>
       </c>
       <c r="C279" s="1">
-        <v>2821.3501000000001</v>
+        <v>2941.5162999999998</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <v>43370</v>
+        <v>43523</v>
       </c>
       <c r="B280" s="1">
-        <v>3403.5902000000001</v>
+        <v>3678.3921</v>
       </c>
       <c r="C280" s="1">
-        <v>2791.7748000000001</v>
+        <v>2953.8242</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>43369</v>
+        <v>43524</v>
       </c>
       <c r="B281" s="1">
-        <v>3417.2413000000001</v>
+        <v>3669.3703</v>
       </c>
       <c r="C281" s="1">
-        <v>2806.8132999999998</v>
+        <v>2940.9537999999998</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>43368</v>
+        <v>43525</v>
       </c>
       <c r="B282" s="1">
-        <v>3379.8042999999998</v>
+        <v>3749.7143000000001</v>
       </c>
       <c r="C282" s="1">
-        <v>2781.1385</v>
+        <v>2994.0050000000001</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>43364</v>
+        <v>43528</v>
       </c>
       <c r="B283" s="1">
-        <v>3410.4856</v>
+        <v>3794.1039999999998</v>
       </c>
       <c r="C283" s="1">
-        <v>2797.4848000000002</v>
+        <v>3027.5754999999999</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>43363</v>
+        <v>43529</v>
       </c>
       <c r="B284" s="1">
-        <v>3310.1257999999998</v>
+        <v>3816.0131999999999</v>
       </c>
       <c r="C284" s="1">
-        <v>2729.2438000000002</v>
+        <v>3054.2465999999999</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>43362</v>
+        <v>43530</v>
       </c>
       <c r="B285" s="1">
-        <v>3312.4823000000001</v>
+        <v>3848.0902999999998</v>
       </c>
       <c r="C285" s="1">
-        <v>2730.8503000000001</v>
+        <v>3102.0990999999999</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
-        <v>43361</v>
+        <v>43531</v>
       </c>
       <c r="B286" s="1">
-        <v>3269.4319</v>
+        <v>3808.8497000000002</v>
       </c>
       <c r="C286" s="1">
-        <v>2699.9501</v>
+        <v>3106.4178999999999</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
-        <v>43360</v>
+        <v>43532</v>
       </c>
       <c r="B287" s="1">
-        <v>3204.9223999999999</v>
+        <v>3657.5790000000002</v>
       </c>
       <c r="C287" s="1">
-        <v>2651.7885999999999</v>
+        <v>2969.8613999999998</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
-        <v>43357</v>
+        <v>43535</v>
       </c>
       <c r="B288" s="1">
-        <v>3242.0902000000001</v>
+        <v>3729.9546</v>
       </c>
       <c r="C288" s="1">
-        <v>2681.6430999999998</v>
+        <v>3026.9924999999998</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <v>43356</v>
+        <v>43536</v>
       </c>
       <c r="B289" s="1">
-        <v>3236.5662000000002</v>
+        <v>3755.3519000000001</v>
       </c>
       <c r="C289" s="1">
-        <v>2686.5783999999999</v>
+        <v>3060.3072999999999</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <v>43355</v>
+        <v>43537</v>
       </c>
       <c r="B290" s="1">
-        <v>3202.0248000000001</v>
+        <v>3724.1941000000002</v>
       </c>
       <c r="C290" s="1">
-        <v>2656.1100999999999</v>
+        <v>3026.9513000000002</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <v>43354</v>
+        <v>43538</v>
       </c>
       <c r="B291" s="1">
-        <v>3224.2116000000001</v>
+        <v>3698.4857999999999</v>
       </c>
       <c r="C291" s="1">
-        <v>2664.7997</v>
+        <v>2990.6849999999999</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <v>43353</v>
+        <v>43539</v>
       </c>
       <c r="B292" s="1">
-        <v>3230.0681</v>
+        <v>3745.0050000000001</v>
       </c>
       <c r="C292" s="1">
-        <v>2669.4845</v>
+        <v>3021.7512000000002</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <v>43350</v>
+        <v>43542</v>
       </c>
       <c r="B293" s="1">
-        <v>3277.6437999999998</v>
+        <v>3851.7478999999998</v>
       </c>
       <c r="C293" s="1">
-        <v>2702.3006999999998</v>
+        <v>3096.4176000000002</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
-        <v>43349</v>
+        <v>43543</v>
       </c>
       <c r="B294" s="1">
-        <v>3262.8807999999999</v>
+        <v>3833.9625999999998</v>
       </c>
       <c r="C294" s="1">
-        <v>2691.5929000000001</v>
+        <v>3090.9749999999999</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
-        <v>43348</v>
+        <v>43544</v>
       </c>
       <c r="B295" s="1">
-        <v>3298.1412</v>
+        <v>3835.4396999999999</v>
       </c>
       <c r="C295" s="1">
-        <v>2704.3368</v>
+        <v>3090.6403</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
-        <v>43347</v>
+        <v>43545</v>
       </c>
       <c r="B296" s="1">
-        <v>3363.8984</v>
+        <v>3836.8912999999998</v>
       </c>
       <c r="C296" s="1">
-        <v>2750.5803999999998</v>
+        <v>3101.4549999999999</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
-        <v>43346</v>
+        <v>43546</v>
       </c>
       <c r="B297" s="1">
-        <v>3321.8247999999999</v>
+        <v>3833.8013000000001</v>
       </c>
       <c r="C297" s="1">
-        <v>2720.7343999999998</v>
+        <v>3104.1487000000002</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>43343</v>
+        <v>43549</v>
       </c>
       <c r="B298" s="1">
-        <v>3334.5036</v>
+        <v>3742.8252000000002</v>
       </c>
       <c r="C298" s="1">
-        <v>2725.2498999999998</v>
+        <v>3043.0313000000001</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <v>43342</v>
+        <v>43550</v>
       </c>
       <c r="B299" s="1">
-        <v>3351.0942</v>
+        <v>3700.4387999999999</v>
       </c>
       <c r="C299" s="1">
-        <v>2737.7366999999999</v>
+        <v>2997.0954000000002</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
-        <v>43341</v>
+        <v>43551</v>
       </c>
       <c r="B300" s="1">
-        <v>3386.5736000000002</v>
+        <v>3743.3878</v>
       </c>
       <c r="C300" s="1">
-        <v>2769.2946999999999</v>
+        <v>3022.7195999999999</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
-        <v>43340</v>
+        <v>43552</v>
       </c>
       <c r="B301" s="1">
-        <v>3400.1705000000002</v>
+        <v>3728.3953000000001</v>
       </c>
       <c r="C301" s="1">
-        <v>2777.9807999999998</v>
+        <v>2994.9434000000001</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
-        <v>43339</v>
+        <v>43553</v>
       </c>
       <c r="B302" s="1">
-        <v>3406.5735</v>
+        <v>3872.3411999999998</v>
       </c>
       <c r="C302" s="1">
-        <v>2780.8989999999999</v>
+        <v>3090.7579999999998</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
-        <v>43336</v>
+        <v>43556</v>
       </c>
       <c r="B303" s="1">
-        <v>3325.3346999999999</v>
+        <v>3973.9279999999999</v>
       </c>
       <c r="C303" s="1">
-        <v>2729.4308000000001</v>
+        <v>3170.3609999999999</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <v>43335</v>
+        <v>43557</v>
       </c>
       <c r="B304" s="1">
-        <v>3320.0257000000001</v>
+        <v>3971.2851999999998</v>
       </c>
       <c r="C304" s="1">
-        <v>2724.6244000000002</v>
+        <v>3176.8227000000002</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
-        <v>43334</v>
+        <v>43558</v>
       </c>
       <c r="B305" s="1">
-        <v>3307.9544999999998</v>
+        <v>4022.1565999999998</v>
       </c>
       <c r="C305" s="1">
-        <v>2714.6082000000001</v>
+        <v>3216.2952</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <v>43333</v>
+        <v>43559</v>
       </c>
       <c r="B306" s="1">
-        <v>3326.6489000000001</v>
+        <v>4062.2309</v>
       </c>
       <c r="C306" s="1">
-        <v>2733.8263999999999</v>
+        <v>3246.5713999999998</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
-        <v>43332</v>
+        <v>43563</v>
       </c>
       <c r="B307" s="1">
-        <v>3267.2498000000001</v>
+        <v>4057.2285999999999</v>
       </c>
       <c r="C307" s="1">
-        <v>2698.4657999999999</v>
+        <v>3244.8103000000001</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <v>43329</v>
+        <v>43564</v>
       </c>
       <c r="B308" s="1">
-        <v>3229.6197999999999</v>
+        <v>4075.4301</v>
       </c>
       <c r="C308" s="1">
-        <v>2668.9659999999999</v>
+        <v>3239.6639</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
-        <v>43328</v>
+        <v>43565</v>
       </c>
       <c r="B309" s="1">
-        <v>3276.7276000000002</v>
+        <v>4085.8470000000002</v>
       </c>
       <c r="C309" s="1">
-        <v>2705.1916999999999</v>
+        <v>3241.9299000000001</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <v>43327</v>
+        <v>43566</v>
       </c>
       <c r="B310" s="1">
-        <v>3291.9760000000001</v>
+        <v>3997.5778</v>
       </c>
       <c r="C310" s="1">
-        <v>2723.2575999999999</v>
+        <v>3189.9618999999998</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
-        <v>43326</v>
+        <v>43567</v>
       </c>
       <c r="B311" s="1">
-        <v>3372.9137000000001</v>
+        <v>3988.6167999999998</v>
       </c>
       <c r="C311" s="1">
-        <v>2780.9645999999998</v>
+        <v>3188.6255999999998</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
-        <v>43325</v>
+        <v>43570</v>
       </c>
       <c r="B312" s="1">
-        <v>3390.3440999999998</v>
+        <v>3975.5243999999998</v>
       </c>
       <c r="C312" s="1">
-        <v>2785.8719999999998</v>
+        <v>3177.7865999999999</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
-        <v>43322</v>
+        <v>43571</v>
       </c>
       <c r="B313" s="1">
-        <v>3405.0191</v>
+        <v>4085.7891</v>
       </c>
       <c r="C313" s="1">
-        <v>2795.3099000000002</v>
+        <v>3253.5978</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
-        <v>43321</v>
+        <v>43572</v>
       </c>
       <c r="B314" s="1">
-        <v>3397.5297999999998</v>
+        <v>4087.2397999999998</v>
       </c>
       <c r="C314" s="1">
-        <v>2794.3818000000001</v>
+        <v>3263.1179000000002</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
-        <v>43320</v>
+        <v>43573</v>
       </c>
       <c r="B315" s="1">
-        <v>3314.5075000000002</v>
+        <v>4072.0753</v>
       </c>
       <c r="C315" s="1">
-        <v>2744.0695999999998</v>
+        <v>3250.2012</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
-        <v>43319</v>
+        <v>43574</v>
       </c>
       <c r="B316" s="1">
-        <v>3368.8694999999998</v>
+        <v>4120.6077999999998</v>
       </c>
       <c r="C316" s="1">
-        <v>2779.3739999999998</v>
+        <v>3270.7973000000002</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
-        <v>43318</v>
+        <v>43577</v>
       </c>
       <c r="B317" s="1">
-        <v>3273.2728000000002</v>
+        <v>4025.6109000000001</v>
       </c>
       <c r="C317" s="1">
-        <v>2705.1565000000001</v>
+        <v>3215.0426000000002</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
-        <v>43315</v>
+        <v>43578</v>
       </c>
       <c r="B318" s="1">
-        <v>3315.2838999999999</v>
+        <v>4019.0052999999998</v>
       </c>
       <c r="C318" s="1">
-        <v>2740.4429</v>
+        <v>3198.5938000000001</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
-        <v>43314</v>
+        <v>43579</v>
       </c>
       <c r="B319" s="1">
-        <v>3370.9578999999999</v>
+        <v>4030.0886999999998</v>
       </c>
       <c r="C319" s="1">
-        <v>2768.0239000000001</v>
+        <v>3201.6136999999999</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
-        <v>43313</v>
+        <v>43580</v>
       </c>
       <c r="B320" s="1">
-        <v>3447.3881999999999</v>
+        <v>3941.8159999999998</v>
       </c>
       <c r="C320" s="1">
-        <v>2824.5337</v>
+        <v>3123.8261000000002</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
-        <v>43312</v>
+        <v>43581</v>
       </c>
       <c r="B321" s="1">
-        <v>3517.6568000000002</v>
+        <v>3889.2748000000001</v>
       </c>
       <c r="C321" s="1">
-        <v>2876.4009000000001</v>
+        <v>3086.3989000000001</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
-        <v>43311</v>
+        <v>43584</v>
       </c>
       <c r="B322" s="1">
-        <v>3515.0794000000001</v>
+        <v>3900.3339000000001</v>
       </c>
       <c r="C322" s="1">
-        <v>2869.0495000000001</v>
+        <v>3062.4985000000001</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
-        <v>43308</v>
+        <v>43585</v>
       </c>
       <c r="B323" s="1">
-        <v>3521.2269000000001</v>
+        <v>3913.2109999999998</v>
       </c>
       <c r="C323" s="1">
-        <v>2873.5938000000001</v>
+        <v>3078.3389000000002</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
-        <v>43307</v>
+        <v>43591</v>
       </c>
       <c r="B324" s="1">
-        <v>3536.2456000000002</v>
+        <v>3684.6167999999998</v>
       </c>
       <c r="C324" s="1">
-        <v>2882.2253999999998</v>
+        <v>2906.4639999999999</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
-        <v>43306</v>
+        <v>43592</v>
       </c>
       <c r="B325" s="1">
-        <v>3577.7521999999999</v>
+        <v>3720.6684</v>
       </c>
       <c r="C325" s="1">
-        <v>2903.6466999999998</v>
+        <v>2926.3908000000001</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
-        <v>43305</v>
+        <v>43593</v>
       </c>
       <c r="B326" s="1">
-        <v>3581.7057</v>
+        <v>3667.4573999999998</v>
       </c>
       <c r="C326" s="1">
-        <v>2905.5617999999999</v>
+        <v>2893.7566999999999</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
-        <v>43304</v>
+        <v>43594</v>
       </c>
       <c r="B327" s="1">
-        <v>3525.7503000000002</v>
+        <v>3599.7001</v>
       </c>
       <c r="C327" s="1">
-        <v>2859.5423999999998</v>
+        <v>2850.9537</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
-        <v>43301</v>
+        <v>43595</v>
       </c>
       <c r="B328" s="1">
-        <v>3492.8937999999998</v>
+        <v>3730.4513000000002</v>
       </c>
       <c r="C328" s="1">
-        <v>2829.2712000000001</v>
+        <v>2939.2105999999999</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
-        <v>43300</v>
+        <v>43598</v>
       </c>
       <c r="B329" s="1">
-        <v>3428.3429999999998</v>
+        <v>3668.7255</v>
       </c>
       <c r="C329" s="1">
-        <v>2772.5454</v>
+        <v>2903.7130999999999</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
-        <v>43299</v>
+        <v>43599</v>
       </c>
       <c r="B330" s="1">
-        <v>3431.3227000000002</v>
+        <v>3645.1502999999998</v>
       </c>
       <c r="C330" s="1">
-        <v>2787.2570000000001</v>
+        <v>2883.6107000000002</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
-        <v>43298</v>
+        <v>43600</v>
       </c>
       <c r="B331" s="1">
-        <v>3449.3773000000001</v>
+        <v>3727.0922999999998</v>
       </c>
       <c r="C331" s="1">
-        <v>2798.1259</v>
+        <v>2938.6781000000001</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
-        <v>43297</v>
+        <v>43601</v>
       </c>
       <c r="B332" s="1">
-        <v>3472.0859</v>
+        <v>3743.9634999999998</v>
       </c>
       <c r="C332" s="1">
-        <v>2814.0418</v>
+        <v>2955.7109999999998</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
-        <v>43294</v>
+        <v>43602</v>
       </c>
       <c r="B333" s="1">
-        <v>3492.6896999999999</v>
+        <v>3648.7609000000002</v>
       </c>
       <c r="C333" s="1">
-        <v>2831.1837</v>
+        <v>2882.2962000000002</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
-        <v>43293</v>
+        <v>43605</v>
       </c>
       <c r="B334" s="1">
-        <v>3481.0558999999998</v>
+        <v>3617.7923999999998</v>
       </c>
       <c r="C334" s="1">
-        <v>2837.6586000000002</v>
+        <v>2870.6046000000001</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
-        <v>43292</v>
+        <v>43606</v>
       </c>
       <c r="B335" s="1">
-        <v>3407.5297</v>
+        <v>3666.7761999999998</v>
       </c>
       <c r="C335" s="1">
-        <v>2777.7710999999999</v>
+        <v>2905.9688000000001</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
-        <v>43291</v>
+        <v>43607</v>
       </c>
       <c r="B336" s="1">
-        <v>3467.5155</v>
+        <v>3649.3796000000002</v>
       </c>
       <c r="C336" s="1">
-        <v>2827.6251999999999</v>
+        <v>2891.7046</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
-        <v>43290</v>
+        <v>43608</v>
       </c>
       <c r="B337" s="1">
-        <v>3459.1837</v>
+        <v>3583.9645999999998</v>
       </c>
       <c r="C337" s="1">
-        <v>2815.1095</v>
+        <v>2852.5153</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
-        <v>43287</v>
+        <v>43609</v>
       </c>
       <c r="B338" s="1">
-        <v>3365.1226999999999</v>
+        <v>3593.9139</v>
       </c>
       <c r="C338" s="1">
-        <v>2747.2285000000002</v>
+        <v>2852.9947999999999</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
-        <v>43286</v>
+        <v>43612</v>
       </c>
       <c r="B339" s="1">
-        <v>3342.4378999999999</v>
+        <v>3637.1970999999999</v>
       </c>
       <c r="C339" s="1">
-        <v>2733.8818999999999</v>
+        <v>2892.3782000000001</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
-        <v>43285</v>
+        <v>43613</v>
       </c>
       <c r="B340" s="1">
-        <v>3363.7473</v>
+        <v>3672.2604999999999</v>
       </c>
       <c r="C340" s="1">
-        <v>2759.1260000000002</v>
+        <v>2909.9106000000002</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
-        <v>43284</v>
+        <v>43614</v>
       </c>
       <c r="B341" s="1">
-        <v>3409.2800999999999</v>
+        <v>3663.9090000000001</v>
       </c>
       <c r="C341" s="1">
-        <v>2786.8878</v>
+        <v>2914.6963999999998</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
-        <v>43283</v>
+        <v>43615</v>
       </c>
       <c r="B342" s="1">
-        <v>3407.9638</v>
+        <v>3641.1833000000001</v>
       </c>
       <c r="C342" s="1">
-        <v>2775.5569999999998</v>
+        <v>2905.8054000000002</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
-        <v>43280</v>
+        <v>43616</v>
       </c>
       <c r="B343" s="1">
-        <v>3510.9845</v>
+        <v>3629.7892999999999</v>
       </c>
       <c r="C343" s="1">
-        <v>2847.4180999999999</v>
+        <v>2898.6961000000001</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
-        <v>43279</v>
+        <v>43619</v>
       </c>
       <c r="B344" s="1">
-        <v>3423.5255000000002</v>
+        <v>3632.0127000000002</v>
       </c>
       <c r="C344" s="1">
-        <v>2786.8966</v>
+        <v>2890.0808999999999</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
-        <v>43278</v>
+        <v>43620</v>
       </c>
       <c r="B345" s="1">
-        <v>3459.2620999999999</v>
+        <v>3598.4666000000002</v>
       </c>
       <c r="C345" s="1">
-        <v>2813.1774999999998</v>
+        <v>2862.2802999999999</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
-        <v>43277</v>
+        <v>43621</v>
       </c>
       <c r="B346" s="1">
-        <v>3531.1111999999998</v>
+        <v>3597.105</v>
       </c>
       <c r="C346" s="1">
-        <v>2844.5081</v>
+        <v>2861.4180999999999</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
-        <v>43276</v>
+        <v>43622</v>
       </c>
       <c r="B347" s="1">
-        <v>3560.4776999999999</v>
+        <v>3564.6777999999999</v>
       </c>
       <c r="C347" s="1">
-        <v>2859.3364000000001</v>
+        <v>2827.7977999999998</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
-        <v>43273</v>
+        <v>43626</v>
       </c>
       <c r="B348" s="1">
-        <v>3608.9045999999998</v>
+        <v>3610.7435</v>
       </c>
       <c r="C348" s="1">
-        <v>2889.7602999999999</v>
+        <v>2852.1302000000001</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
-        <v>43272</v>
+        <v>43627</v>
       </c>
       <c r="B349" s="1">
-        <v>3592.9650000000001</v>
+        <v>3719.2759000000001</v>
       </c>
       <c r="C349" s="1">
-        <v>2875.8099000000002</v>
+        <v>2925.7161999999998</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
-        <v>43271</v>
+        <v>43628</v>
       </c>
       <c r="B350" s="1">
-        <v>3635.4436000000001</v>
+        <v>3691.0956999999999</v>
       </c>
       <c r="C350" s="1">
-        <v>2915.7314000000001</v>
+        <v>2909.3796000000002</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
-        <v>43270</v>
+        <v>43629</v>
       </c>
       <c r="B351" s="1">
-        <v>3621.1165999999998</v>
+        <v>3685.3933000000002</v>
       </c>
       <c r="C351" s="1">
-        <v>2907.8220999999999</v>
+        <v>2910.7406000000001</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
-        <v>43266</v>
+        <v>43630</v>
       </c>
       <c r="B352" s="1">
-        <v>3753.4337999999998</v>
+        <v>3654.8798999999999</v>
       </c>
       <c r="C352" s="1">
-        <v>3021.9007999999999</v>
+        <v>2881.9742999999999</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
-        <v>43265</v>
+        <v>43633</v>
       </c>
       <c r="B353" s="1">
-        <v>3773.3654999999999</v>
+        <v>3654.8247999999999</v>
       </c>
       <c r="C353" s="1">
-        <v>3044.1597000000002</v>
+        <v>2887.6221</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
-        <v>43264</v>
+        <v>43634</v>
       </c>
       <c r="B354" s="1">
-        <v>3788.3391000000001</v>
+        <v>3667.6185</v>
       </c>
       <c r="C354" s="1">
-        <v>3049.7964999999999</v>
+        <v>2890.1579999999999</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
-        <v>43263</v>
+        <v>43635</v>
       </c>
       <c r="B355" s="1">
-        <v>3825.9533999999999</v>
+        <v>3715.9380999999998</v>
       </c>
       <c r="C355" s="1">
-        <v>3079.8018000000002</v>
+        <v>2917.8029000000001</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
-        <v>43262</v>
+        <v>43636</v>
       </c>
       <c r="B356" s="1">
-        <v>3779.9818</v>
+        <v>3828.5183000000002</v>
       </c>
       <c r="C356" s="1">
-        <v>3052.7831000000001</v>
+        <v>2987.1185999999998</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
-        <v>43259</v>
+        <v>43637</v>
       </c>
       <c r="B357" s="1">
-        <v>3779.6158999999998</v>
+        <v>3833.9382999999998</v>
       </c>
       <c r="C357" s="1">
-        <v>3067.1478000000002</v>
+        <v>3001.9802</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
-        <v>43258</v>
+        <v>43640</v>
       </c>
       <c r="B358" s="1">
-        <v>3831.0128</v>
+        <v>3841.2658999999999</v>
       </c>
       <c r="C358" s="1">
-        <v>3109.4987999999998</v>
+        <v>3008.1478999999999</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
-        <v>43257</v>
+        <v>43641</v>
       </c>
       <c r="B359" s="1">
-        <v>3837.3510999999999</v>
+        <v>3801.3098</v>
       </c>
       <c r="C359" s="1">
-        <v>3115.1803</v>
+        <v>2982.0738000000001</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
-        <v>43256</v>
+        <v>43642</v>
       </c>
       <c r="B360" s="1">
-        <v>3845.3164000000002</v>
+        <v>3794.3310000000001</v>
       </c>
       <c r="C360" s="1">
-        <v>3114.2055</v>
+        <v>2976.2837</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
-        <v>43255</v>
+        <v>43643</v>
       </c>
       <c r="B361" s="1">
-        <v>3807.5781000000002</v>
+        <v>3834.8172</v>
       </c>
       <c r="C361" s="1">
-        <v>3091.1909000000001</v>
+        <v>2996.7926000000002</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
-        <v>43252</v>
+        <v>43644</v>
       </c>
       <c r="B362" s="1">
-        <v>3770.5891000000001</v>
+        <v>3825.5873000000001</v>
       </c>
       <c r="C362" s="1">
-        <v>3075.1372000000001</v>
+        <v>2978.8784000000001</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
-        <v>43251</v>
+        <v>43647</v>
       </c>
       <c r="B363" s="1">
-        <v>3802.3759</v>
+        <v>3935.8116</v>
       </c>
       <c r="C363" s="1">
-        <v>3095.4737</v>
+        <v>3044.9027999999998</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
-        <v>43250</v>
+        <v>43648</v>
       </c>
       <c r="B364" s="1">
-        <v>3723.3724000000002</v>
+        <v>3937.1691000000001</v>
       </c>
       <c r="C364" s="1">
-        <v>3041.4434000000001</v>
+        <v>3043.9427999999998</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
-        <v>43249</v>
+        <v>43649</v>
       </c>
       <c r="B365" s="1">
-        <v>3804.0093000000002</v>
+        <v>3893.5340999999999</v>
       </c>
       <c r="C365" s="1">
-        <v>3120.4605000000001</v>
+        <v>3015.2633000000001</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
-        <v>43248</v>
+        <v>43650</v>
       </c>
       <c r="B366" s="1">
-        <v>3833.2599</v>
+        <v>3873.1019000000001</v>
       </c>
       <c r="C366" s="1">
-        <v>3135.0821000000001</v>
+        <v>3005.2487999999998</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
-        <v>43245</v>
+        <v>43651</v>
       </c>
       <c r="B367" s="1">
-        <v>3816.498</v>
+        <v>3893.2024999999999</v>
       </c>
       <c r="C367" s="1">
-        <v>3141.3031999999998</v>
+        <v>3011.0587999999998</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
-        <v>43244</v>
+        <v>43654</v>
       </c>
       <c r="B368" s="1">
-        <v>3827.2170000000001</v>
+        <v>3802.7896999999998</v>
       </c>
       <c r="C368" s="1">
-        <v>3154.6505999999999</v>
+        <v>2933.3634000000002</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
-        <v>43243</v>
+        <v>43655</v>
       </c>
       <c r="B369" s="1">
-        <v>3854.5825</v>
+        <v>3793.1297</v>
       </c>
       <c r="C369" s="1">
-        <v>3168.9641999999999</v>
+        <v>2928.2294999999999</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
-        <v>43242</v>
+        <v>43656</v>
       </c>
       <c r="B370" s="1">
-        <v>3906.2080999999998</v>
+        <v>3786.739</v>
       </c>
       <c r="C370" s="1">
-        <v>3214.3497000000002</v>
+        <v>2915.3022000000001</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
-        <v>43241</v>
+        <v>43657</v>
       </c>
       <c r="B371" s="1">
-        <v>3921.2420999999999</v>
+        <v>3785.221</v>
       </c>
       <c r="C371" s="1">
-        <v>3213.8404</v>
+        <v>2917.7609000000002</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
-        <v>43238</v>
+        <v>43658</v>
       </c>
       <c r="B372" s="1">
-        <v>3903.0637000000002</v>
+        <v>3808.7311</v>
       </c>
       <c r="C372" s="1">
-        <v>3193.3033999999998</v>
+        <v>2930.5462000000002</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
-        <v>43237</v>
+        <v>43661</v>
       </c>
       <c r="B373" s="1">
-        <v>3864.0506999999998</v>
+        <v>3824.1878000000002</v>
       </c>
       <c r="C373" s="1">
-        <v>3154.2824999999998</v>
+        <v>2942.1853000000001</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
-        <v>43236</v>
+        <v>43662</v>
       </c>
       <c r="B374" s="1">
-        <v>3892.8442</v>
+        <v>3806.8449000000001</v>
       </c>
       <c r="C374" s="1">
-        <v>3169.5652</v>
+        <v>2937.6167999999998</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
-        <v>43235</v>
+        <v>43663</v>
       </c>
       <c r="B375" s="1">
-        <v>3924.0974999999999</v>
+        <v>3804.6383999999998</v>
       </c>
       <c r="C375" s="1">
-        <v>3192.1183000000001</v>
+        <v>2931.6925999999999</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
-        <v>43234</v>
+        <v>43664</v>
       </c>
       <c r="B376" s="1">
-        <v>3909.2932999999998</v>
+        <v>3768.4018999999998</v>
       </c>
       <c r="C376" s="1">
-        <v>3174.0320000000002</v>
+        <v>2901.1765999999998</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
-        <v>43231</v>
+        <v>43665</v>
       </c>
       <c r="B377" s="1">
-        <v>3872.8382999999999</v>
+        <v>3807.9551000000001</v>
       </c>
       <c r="C377" s="1">
-        <v>3163.2631999999999</v>
+        <v>2924.2006000000001</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
-        <v>43230</v>
+        <v>43668</v>
       </c>
       <c r="B378" s="1">
-        <v>3893.0565000000001</v>
+        <v>3781.6831999999999</v>
       </c>
       <c r="C378" s="1">
-        <v>3174.4126999999999</v>
+        <v>2886.9740000000002</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
-        <v>43229</v>
+        <v>43669</v>
       </c>
       <c r="B379" s="1">
-        <v>3871.6152000000002</v>
+        <v>3789.9135000000001</v>
       </c>
       <c r="C379" s="1">
-        <v>3159.1502</v>
+        <v>2899.9445999999998</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
-        <v>43228</v>
+        <v>43670</v>
       </c>
       <c r="B380" s="1">
-        <v>3878.6767</v>
+        <v>3819.8325</v>
       </c>
       <c r="C380" s="1">
-        <v>3161.4976000000001</v>
+        <v>2923.2775000000001</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
-        <v>43227</v>
+        <v>43671</v>
       </c>
       <c r="B381" s="1">
-        <v>3834.1876999999999</v>
+        <v>3851.0664999999999</v>
       </c>
       <c r="C381" s="1">
-        <v>3136.6448</v>
+        <v>2937.3600999999999</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
-        <v>43224</v>
+        <v>43672</v>
       </c>
       <c r="B382" s="1">
-        <v>3774.5981000000002</v>
+        <v>3858.5688</v>
       </c>
       <c r="C382" s="1">
-        <v>3091.0333999999998</v>
+        <v>2944.5410000000002</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
-        <v>43223</v>
+        <v>43675</v>
       </c>
       <c r="B383" s="1">
-        <v>3793.0001000000002</v>
+        <v>3854.2703999999999</v>
       </c>
       <c r="C383" s="1">
-        <v>3100.8586</v>
+        <v>2941.0070000000001</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
-        <v>43222</v>
+        <v>43676</v>
       </c>
       <c r="B384" s="1">
-        <v>3763.6460999999999</v>
+        <v>3870.3175999999999</v>
       </c>
       <c r="C384" s="1">
-        <v>3081.1772999999998</v>
+        <v>2952.3382999999999</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
-        <v>43217</v>
+        <v>43677</v>
       </c>
       <c r="B385" s="1">
-        <v>3756.8764999999999</v>
+        <v>3835.3589000000002</v>
       </c>
       <c r="C385" s="1">
-        <v>3082.2316000000001</v>
+        <v>2932.5057999999999</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
-        <v>43216</v>
+        <v>43678</v>
       </c>
       <c r="B386" s="1">
-        <v>3755.4940999999999</v>
+        <v>3803.4694</v>
       </c>
       <c r="C386" s="1">
-        <v>3075.0300999999999</v>
+        <v>2908.7660000000001</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
-        <v>43215</v>
+        <v>43679</v>
       </c>
       <c r="B387" s="1">
-        <v>3828.7015000000001</v>
+        <v>3747.4378999999999</v>
       </c>
       <c r="C387" s="1">
-        <v>3117.9739</v>
+        <v>2867.8375999999998</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
-        <v>43214</v>
+        <v>43682</v>
       </c>
       <c r="B388" s="1">
-        <v>3843.4886000000001</v>
+        <v>3675.6884</v>
       </c>
       <c r="C388" s="1">
-        <v>3128.9270999999999</v>
+        <v>2821.4956999999999</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
-        <v>43213</v>
+        <v>43683</v>
       </c>
       <c r="B389" s="1">
-        <v>3766.3256999999999</v>
+        <v>3636.3289</v>
       </c>
       <c r="C389" s="1">
-        <v>3068.0120000000002</v>
+        <v>2777.5558999999998</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
-        <v>43210</v>
+        <v>43684</v>
       </c>
       <c r="B390" s="1">
-        <v>3760.8543</v>
+        <v>3621.431</v>
       </c>
       <c r="C390" s="1">
-        <v>3071.5425</v>
+        <v>2768.6795000000002</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
-        <v>43209</v>
+        <v>43685</v>
       </c>
       <c r="B391" s="1">
-        <v>3811.8429999999998</v>
+        <v>3669.2936</v>
       </c>
       <c r="C391" s="1">
-        <v>3117.3760000000002</v>
+        <v>2794.5522999999998</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
-        <v>43208</v>
+        <v>43686</v>
       </c>
       <c r="B392" s="1">
-        <v>3766.2820000000002</v>
+        <v>3633.5295999999998</v>
       </c>
       <c r="C392" s="1">
-        <v>3091.3987000000002</v>
+        <v>2774.7532000000001</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
-        <v>43207</v>
+        <v>43689</v>
       </c>
       <c r="B393" s="1">
-        <v>3748.6412</v>
+        <v>3699.1046999999999</v>
       </c>
       <c r="C393" s="1">
-        <v>3066.7966999999999</v>
+        <v>2814.9944</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
-        <v>43206</v>
+        <v>43690</v>
       </c>
       <c r="B394" s="1">
-        <v>3808.8629999999998</v>
+        <v>3665.7514999999999</v>
       </c>
       <c r="C394" s="1">
-        <v>3110.6489000000001</v>
+        <v>2797.2595999999999</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
-        <v>43203</v>
+        <v>43691</v>
       </c>
       <c r="B395" s="1">
-        <v>3871.1442999999999</v>
+        <v>3682.4014999999999</v>
       </c>
       <c r="C395" s="1">
-        <v>3159.0520999999999</v>
+        <v>2808.9146000000001</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
-        <v>43202</v>
+        <v>43692</v>
       </c>
       <c r="B396" s="1">
-        <v>3898.6354000000001</v>
+        <v>3694.0005999999998</v>
       </c>
       <c r="C396" s="1">
-        <v>3180.1583000000001</v>
+        <v>2815.7975999999999</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
-        <v>43201</v>
+        <v>43693</v>
       </c>
       <c r="B397" s="1">
-        <v>3938.3434000000002</v>
+        <v>3710.5385999999999</v>
       </c>
       <c r="C397" s="1">
-        <v>3208.0817999999999</v>
+        <v>2823.8238000000001</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
-        <v>43200</v>
+        <v>43696</v>
       </c>
       <c r="B398" s="1">
-        <v>3927.1729</v>
+        <v>3791.0945999999999</v>
       </c>
       <c r="C398" s="1">
-        <v>3190.3216000000002</v>
+        <v>2883.096</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
-        <v>43199</v>
+        <v>43697</v>
       </c>
       <c r="B399" s="1">
-        <v>3852.9292</v>
+        <v>3787.7323999999999</v>
       </c>
       <c r="C399" s="1">
-        <v>3138.2936</v>
+        <v>2880.0012000000002</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
-        <v>43194</v>
+        <v>43698</v>
       </c>
       <c r="B400" s="1">
-        <v>3854.8625000000002</v>
+        <v>3781.7579000000001</v>
       </c>
       <c r="C400" s="1">
-        <v>3131.1113999999998</v>
+        <v>2880.3307</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
-        <v>43193</v>
+        <v>43699</v>
       </c>
       <c r="B401" s="1">
-        <v>3862.4796000000001</v>
+        <v>3793.5061000000001</v>
       </c>
       <c r="C401" s="1">
-        <v>3136.6332000000002</v>
+        <v>2883.4358000000002</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
-        <v>43192</v>
+        <v>43700</v>
       </c>
       <c r="B402" s="1">
-        <v>3886.9189000000001</v>
+        <v>3820.8638000000001</v>
       </c>
       <c r="C402" s="1">
-        <v>3163.1790000000001</v>
+        <v>2897.4252999999999</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
-        <v>43189</v>
+        <v>43703</v>
       </c>
       <c r="B403" s="1">
-        <v>3898.4976999999999</v>
+        <v>3765.9105</v>
       </c>
       <c r="C403" s="1">
-        <v>3168.8966</v>
+        <v>2863.5673000000002</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
-        <v>43188</v>
+        <v>43704</v>
       </c>
       <c r="B404" s="1">
-        <v>3894.0497999999998</v>
+        <v>3816.9459000000002</v>
       </c>
       <c r="C404" s="1">
-        <v>3160.5306</v>
+        <v>2902.1932000000002</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
-        <v>43187</v>
+        <v>43705</v>
       </c>
       <c r="B405" s="1">
-        <v>3842.7154999999998</v>
+        <v>3802.5844000000002</v>
       </c>
       <c r="C405" s="1">
-        <v>3122.2894999999999</v>
+        <v>2893.7564000000002</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
-        <v>43186</v>
+        <v>43706</v>
       </c>
       <c r="B406" s="1">
-        <v>3913.2689</v>
+        <v>3790.1867000000002</v>
       </c>
       <c r="C406" s="1">
-        <v>3166.6487999999999</v>
+        <v>2890.9191999999998</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
-        <v>43185</v>
+        <v>43707</v>
       </c>
       <c r="B407" s="1">
-        <v>3879.893</v>
+        <v>3799.5862999999999</v>
       </c>
       <c r="C407" s="1">
-        <v>3133.7217999999998</v>
+        <v>2886.2365</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
-        <v>43182</v>
+        <v>43710</v>
       </c>
       <c r="B408" s="1">
-        <v>3904.9355</v>
+        <v>3848.3198000000002</v>
       </c>
       <c r="C408" s="1">
-        <v>3152.7608</v>
+        <v>2924.1062999999999</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
-        <v>43181</v>
+        <v>43711</v>
       </c>
       <c r="B409" s="1">
-        <v>4020.3490000000002</v>
+        <v>3853.6106</v>
       </c>
       <c r="C409" s="1">
-        <v>3263.4803000000002</v>
+        <v>2930.1538</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
-        <v>43180</v>
+        <v>43712</v>
       </c>
       <c r="B410" s="1">
-        <v>4061.0502000000001</v>
+        <v>3886.0012000000002</v>
       </c>
       <c r="C410" s="1">
-        <v>3280.9521</v>
+        <v>2957.4115999999999</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
-        <v>43179</v>
+        <v>43713</v>
       </c>
       <c r="B411" s="1">
-        <v>4077.7040999999999</v>
+        <v>3925.3229999999999</v>
       </c>
       <c r="C411" s="1">
-        <v>3290.6399000000001</v>
+        <v>2985.8647999999998</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
-        <v>43178</v>
+        <v>43714</v>
       </c>
       <c r="B412" s="1">
-        <v>4074.2478999999998</v>
+        <v>3948.5075000000002</v>
       </c>
       <c r="C412" s="1">
-        <v>3279.2516999999998</v>
+        <v>2999.6012999999998</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
-        <v>43175</v>
+        <v>43717</v>
       </c>
       <c r="B413" s="1">
-        <v>4056.4225999999999</v>
+        <v>3972.9484000000002</v>
       </c>
       <c r="C413" s="1">
-        <v>3269.8820999999998</v>
+        <v>3024.7388000000001</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
-        <v>43174</v>
+        <v>43718</v>
       </c>
       <c r="B414" s="1">
-        <v>4096.1626999999999</v>
+        <v>3959.2649999999999</v>
       </c>
       <c r="C414" s="1">
-        <v>3291.1120000000001</v>
+        <v>3021.2024000000001</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
-        <v>43173</v>
+        <v>43719</v>
       </c>
       <c r="B415" s="1">
-        <v>4073.3447000000001</v>
+        <v>3930.0999000000002</v>
       </c>
       <c r="C415" s="1">
-        <v>3291.3818999999999</v>
+        <v>3008.8117999999999</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
-        <v>43172</v>
+        <v>43720</v>
       </c>
       <c r="B416" s="1">
-        <v>4091.2532999999999</v>
+        <v>3972.3798999999999</v>
       </c>
       <c r="C416" s="1">
-        <v>3310.2388999999998</v>
+        <v>3031.2350999999999</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
-        <v>43171</v>
+        <v>43724</v>
       </c>
       <c r="B417" s="1">
-        <v>4127.6661999999997</v>
+        <v>3957.7154</v>
       </c>
       <c r="C417" s="1">
-        <v>3326.6992</v>
+        <v>3030.7543999999998</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
-        <v>43168</v>
+        <v>43725</v>
       </c>
       <c r="B418" s="1">
-        <v>4108.8652000000002</v>
+        <v>3891.2208000000001</v>
       </c>
       <c r="C418" s="1">
-        <v>3307.1655999999998</v>
+        <v>2978.1178</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
-        <v>43167</v>
+        <v>43726</v>
       </c>
       <c r="B419" s="1">
-        <v>4077.6001000000001</v>
+        <v>3910.0837000000001</v>
       </c>
       <c r="C419" s="1">
-        <v>3288.4054999999998</v>
+        <v>2985.6586000000002</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
-        <v>43166</v>
+        <v>43727</v>
       </c>
       <c r="B420" s="1">
-        <v>4036.6536000000001</v>
+        <v>3924.3823000000002</v>
       </c>
       <c r="C420" s="1">
-        <v>3271.6682999999998</v>
+        <v>2999.2788999999998</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
-        <v>43165</v>
+        <v>43728</v>
       </c>
       <c r="B421" s="1">
-        <v>4066.5646999999999</v>
+        <v>3935.6511</v>
       </c>
       <c r="C421" s="1">
-        <v>3289.6419000000001</v>
+        <v>3006.4467</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
-        <v>43164</v>
+        <v>43731</v>
       </c>
       <c r="B422" s="1">
-        <v>4018.0970000000002</v>
+        <v>3890.6615999999999</v>
       </c>
       <c r="C422" s="1">
-        <v>3256.9263000000001</v>
+        <v>2977.0767000000001</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
-        <v>43161</v>
+        <v>43732</v>
       </c>
       <c r="B423" s="1">
-        <v>4016.4609999999998</v>
+        <v>3901.0758000000001</v>
       </c>
       <c r="C423" s="1">
-        <v>3254.5282999999999</v>
+        <v>2985.3406</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
-        <v>43160</v>
+        <v>43733</v>
       </c>
       <c r="B424" s="1">
-        <v>4049.0862999999999</v>
+        <v>3870.9837000000002</v>
       </c>
       <c r="C424" s="1">
-        <v>3273.7548999999999</v>
+        <v>2955.4324999999999</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
-        <v>43159</v>
+        <v>43734</v>
       </c>
       <c r="B425" s="1">
-        <v>4023.6415000000002</v>
+        <v>3841.1388000000002</v>
       </c>
       <c r="C425" s="1">
-        <v>3259.4079999999999</v>
+        <v>2929.0875000000001</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
-        <v>43158</v>
+        <v>43735</v>
       </c>
       <c r="B426" s="1">
-        <v>4058.9805999999999</v>
+        <v>3852.6534000000001</v>
       </c>
       <c r="C426" s="1">
-        <v>3292.0679</v>
+        <v>2932.1669999999999</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
-        <v>43157</v>
+        <v>43738</v>
       </c>
       <c r="B427" s="1">
-        <v>4118.4186</v>
+        <v>3814.5282000000002</v>
       </c>
       <c r="C427" s="1">
-        <v>3329.5736999999999</v>
+        <v>2905.1891999999998</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
-        <v>43154</v>
+        <v>43746</v>
       </c>
       <c r="B428" s="1">
-        <v>4071.0889000000002</v>
+        <v>3837.6790999999998</v>
       </c>
       <c r="C428" s="1">
-        <v>3289.0241000000001</v>
+        <v>2913.5704000000001</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
-        <v>43153</v>
+        <v>43747</v>
       </c>
       <c r="B429" s="1">
-        <v>4052.7332000000001</v>
+        <v>3843.2392</v>
       </c>
       <c r="C429" s="1">
-        <v>3268.5589</v>
+        <v>2924.8566000000001</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
-        <v>43145</v>
+        <v>43748</v>
       </c>
       <c r="B430" s="1">
-        <v>3966.9614000000001</v>
+        <v>3874.6390999999999</v>
       </c>
       <c r="C430" s="1">
-        <v>3199.1588999999999</v>
+        <v>2947.7105999999999</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
-        <v>43144</v>
+        <v>43749</v>
       </c>
       <c r="B431" s="1">
-        <v>3935.6324</v>
+        <v>3911.7253000000001</v>
       </c>
       <c r="C431" s="1">
-        <v>3184.9587000000001</v>
+        <v>2973.6558</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
-        <v>43143</v>
+        <v>43752</v>
       </c>
       <c r="B432" s="1">
-        <v>3890.1046000000001</v>
+        <v>3953.2411000000002</v>
       </c>
       <c r="C432" s="1">
-        <v>3154.1253999999999</v>
+        <v>3007.8834000000002</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
-        <v>43140</v>
+        <v>43753</v>
       </c>
       <c r="B433" s="1">
-        <v>3840.6527000000001</v>
+        <v>3936.2498000000001</v>
       </c>
       <c r="C433" s="1">
-        <v>3129.8508000000002</v>
+        <v>2991.0459000000001</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
-        <v>43139</v>
+        <v>43754</v>
       </c>
       <c r="B434" s="1">
-        <v>4012.0472</v>
+        <v>3922.6853999999998</v>
       </c>
       <c r="C434" s="1">
-        <v>3262.0504000000001</v>
+        <v>2978.7123999999999</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
-        <v>43138</v>
+        <v>43755</v>
       </c>
       <c r="B435" s="1">
-        <v>4050.4971999999998</v>
+        <v>3925.2215999999999</v>
       </c>
       <c r="C435" s="1">
-        <v>3309.2597999999998</v>
+        <v>2977.3341999999998</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
-        <v>43137</v>
+        <v>43756</v>
       </c>
       <c r="B436" s="1">
-        <v>4148.8855999999996</v>
+        <v>3869.3777</v>
       </c>
       <c r="C436" s="1">
-        <v>3370.652</v>
+        <v>2938.1412999999998</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
-        <v>43136</v>
+        <v>43759</v>
       </c>
       <c r="B437" s="1">
-        <v>4274.1463999999996</v>
+        <v>3880.8398000000002</v>
       </c>
       <c r="C437" s="1">
-        <v>3487.4969999999998</v>
+        <v>2939.6179000000002</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
-        <v>43133</v>
+        <v>43760</v>
       </c>
       <c r="B438" s="1">
-        <v>4271.2326000000003</v>
+        <v>3895.8809000000001</v>
       </c>
       <c r="C438" s="1">
-        <v>3462.0808000000002</v>
+        <v>2954.3798999999999</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
-        <v>43132</v>
+        <v>43761</v>
       </c>
       <c r="B439" s="1">
-        <v>4245.8977999999997</v>
+        <v>3871.0848000000001</v>
       </c>
       <c r="C439" s="1">
-        <v>3446.9798999999998</v>
+        <v>2941.6188000000002</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
-        <v>43131</v>
+        <v>43762</v>
       </c>
       <c r="B440" s="1">
-        <v>4275.8986000000004</v>
+        <v>3870.6678000000002</v>
       </c>
       <c r="C440" s="1">
-        <v>3480.8334</v>
+        <v>2940.9214999999999</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
-        <v>43130</v>
+        <v>43763</v>
       </c>
       <c r="B441" s="1">
-        <v>4256.1021000000001</v>
+        <v>3896.7923000000001</v>
       </c>
       <c r="C441" s="1">
-        <v>3488.009</v>
+        <v>2954.9326999999998</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
-        <v>43129</v>
+        <v>43766</v>
       </c>
       <c r="B442" s="1">
-        <v>4302.0181000000002</v>
+        <v>3926.585</v>
       </c>
       <c r="C442" s="1">
-        <v>3523.0007000000001</v>
+        <v>2980.0497999999998</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
-        <v>43126</v>
+        <v>43767</v>
       </c>
       <c r="B443" s="1">
-        <v>4381.2996000000003</v>
+        <v>3910.2260000000001</v>
       </c>
       <c r="C443" s="1">
-        <v>3558.1288</v>
+        <v>2954.1759999999999</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
-        <v>43125</v>
+        <v>43768</v>
       </c>
       <c r="B444" s="1">
-        <v>4365.0793999999996</v>
+        <v>3891.2255</v>
       </c>
       <c r="C444" s="1">
-        <v>3548.3069999999998</v>
+        <v>2939.3209000000002</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
-        <v>43124</v>
+        <v>43769</v>
       </c>
       <c r="B445" s="1">
-        <v>4389.8852999999999</v>
+        <v>3886.7519000000002</v>
       </c>
       <c r="C445" s="1">
-        <v>3559.4652999999998</v>
+        <v>2929.0560999999998</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
-        <v>43123</v>
+        <v>43770</v>
       </c>
       <c r="B446" s="1">
-        <v>4382.6129000000001</v>
+        <v>3952.3872000000001</v>
       </c>
       <c r="C446" s="1">
-        <v>3546.5048000000002</v>
+        <v>2958.1992</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
-        <v>43122</v>
+        <v>43773</v>
       </c>
       <c r="B447" s="1">
-        <v>4336.5973999999997</v>
+        <v>3978.1215999999999</v>
       </c>
       <c r="C447" s="1">
-        <v>3501.3622</v>
+        <v>2975.4919</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
-        <v>43119</v>
+        <v>43774</v>
       </c>
       <c r="B448" s="1">
-        <v>4285.3950000000004</v>
+        <v>4002.8128000000002</v>
       </c>
       <c r="C448" s="1">
-        <v>3487.864</v>
+        <v>2991.5621999999998</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
-        <v>43118</v>
+        <v>43775</v>
       </c>
       <c r="B449" s="1">
-        <v>4271.4168</v>
+        <v>3984.8816000000002</v>
       </c>
       <c r="C449" s="1">
-        <v>3474.7539999999999</v>
+        <v>2978.5954999999999</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
-        <v>43117</v>
+        <v>43776</v>
       </c>
       <c r="B450" s="1">
-        <v>4248.1163999999999</v>
+        <v>3991.8748999999998</v>
       </c>
       <c r="C450" s="1">
-        <v>3444.6713</v>
+        <v>2978.7143999999998</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
-        <v>43116</v>
+        <v>43777</v>
       </c>
       <c r="B451" s="1">
-        <v>4258.473</v>
+        <v>3973.0106999999998</v>
       </c>
       <c r="C451" s="1">
-        <v>3436.5940000000001</v>
+        <v>2964.1849000000002</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
-        <v>43115</v>
+        <v>43780</v>
       </c>
       <c r="B452" s="1">
-        <v>4225.2393000000002</v>
+        <v>3902.9783000000002</v>
       </c>
       <c r="C452" s="1">
-        <v>3410.4881999999998</v>
+        <v>2909.9746</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
-        <v>43112</v>
+        <v>43781</v>
       </c>
       <c r="B453" s="1">
-        <v>4225.0010000000002</v>
+        <v>3903.6887999999999</v>
       </c>
       <c r="C453" s="1">
-        <v>3428.9407000000001</v>
+        <v>2914.8231999999998</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
-        <v>43111</v>
+        <v>43782</v>
       </c>
       <c r="B454" s="1">
-        <v>4205.5862999999999</v>
+        <v>3899.9814999999999</v>
       </c>
       <c r="C454" s="1">
-        <v>3425.3449000000001</v>
+        <v>2905.2408999999998</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
-        <v>43110</v>
+        <v>43783</v>
       </c>
       <c r="B455" s="1">
-        <v>4207.8131999999996</v>
+        <v>3905.857</v>
       </c>
       <c r="C455" s="1">
-        <v>3421.8343</v>
+        <v>2909.8697000000002</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
-        <v>43109</v>
+        <v>43784</v>
       </c>
       <c r="B456" s="1">
-        <v>4189.2977000000001</v>
+        <v>3877.0891999999999</v>
       </c>
       <c r="C456" s="1">
-        <v>3413.8996000000002</v>
+        <v>2891.3431</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
-        <v>43108</v>
+        <v>43787</v>
       </c>
       <c r="B457" s="1">
-        <v>4160.1594999999998</v>
+        <v>3907.9290999999998</v>
       </c>
       <c r="C457" s="1">
-        <v>3409.4794999999999</v>
+        <v>2909.2002000000002</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
-        <v>43105</v>
+        <v>43788</v>
       </c>
       <c r="B458" s="1">
-        <v>4138.7505000000001</v>
+        <v>3947.0392000000002</v>
       </c>
       <c r="C458" s="1">
-        <v>3391.7501000000002</v>
+        <v>2933.9908</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
-        <v>43104</v>
+        <v>43789</v>
       </c>
       <c r="B459" s="1">
-        <v>4128.8118999999997</v>
+        <v>3907.8640999999998</v>
       </c>
       <c r="C459" s="1">
-        <v>3385.7102</v>
+        <v>2911.0533999999998</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
-        <v>43103</v>
+        <v>43790</v>
       </c>
       <c r="B460" s="1">
-        <v>4111.3924999999999</v>
+        <v>3889.598</v>
       </c>
       <c r="C460" s="1">
-        <v>3369.1084000000001</v>
+        <v>2903.6379000000002</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
-        <v>43102</v>
+        <v>43791</v>
       </c>
       <c r="B461" s="1">
-        <v>4087.4011999999998</v>
+        <v>3849.9947999999999</v>
       </c>
       <c r="C461" s="1">
-        <v>3348.3258999999998</v>
+        <v>2885.2883999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C462">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/数据/上证指数与沪深300.xlsx
+++ b/数据/上证指数与沪深300.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\研究生\自制程序\爬虫\jupyter文件\econometrics\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B3C7C2-C3FE-4A52-A31D-DD47490052CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751EBE04-B912-42D3-AF36-2A04718E3DB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="###,###,###,###,##0.00_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +49,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -72,7 +84,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -80,6 +92,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C461"/>
+  <dimension ref="A1:E461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -370,7 +388,7 @@
     <col min="4" max="16384" width="9.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -380,8 +398,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43102</v>
       </c>
@@ -391,8 +410,9 @@
       <c r="C2" s="1">
         <v>3348.3258999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43103</v>
       </c>
@@ -402,8 +422,9 @@
       <c r="C3" s="1">
         <v>3369.1084000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43104</v>
       </c>
@@ -413,8 +434,9 @@
       <c r="C4" s="1">
         <v>3385.7102</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43105</v>
       </c>
@@ -424,8 +446,9 @@
       <c r="C5" s="1">
         <v>3391.7501000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43108</v>
       </c>
@@ -435,8 +458,9 @@
       <c r="C6" s="1">
         <v>3409.4794999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43109</v>
       </c>
@@ -446,8 +470,9 @@
       <c r="C7" s="1">
         <v>3413.8996000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43110</v>
       </c>
@@ -457,8 +482,9 @@
       <c r="C8" s="1">
         <v>3421.8343</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43111</v>
       </c>
@@ -468,8 +494,9 @@
       <c r="C9" s="1">
         <v>3425.3449000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43112</v>
       </c>
@@ -479,8 +506,9 @@
       <c r="C10" s="1">
         <v>3428.9407000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43115</v>
       </c>
@@ -490,8 +518,9 @@
       <c r="C11" s="1">
         <v>3410.4881999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43116</v>
       </c>
@@ -501,8 +530,9 @@
       <c r="C12" s="1">
         <v>3436.5940000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43117</v>
       </c>
@@ -512,8 +542,9 @@
       <c r="C13" s="1">
         <v>3444.6713</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43118</v>
       </c>
@@ -523,8 +554,9 @@
       <c r="C14" s="1">
         <v>3474.7539999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43119</v>
       </c>
@@ -534,8 +566,9 @@
       <c r="C15" s="1">
         <v>3487.864</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43122</v>
       </c>
@@ -545,8 +578,9 @@
       <c r="C16" s="1">
         <v>3501.3622</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43123</v>
       </c>
@@ -556,8 +590,9 @@
       <c r="C17" s="1">
         <v>3546.5048000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43124</v>
       </c>
@@ -567,8 +602,9 @@
       <c r="C18" s="1">
         <v>3559.4652999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43125</v>
       </c>
@@ -578,8 +614,9 @@
       <c r="C19" s="1">
         <v>3548.3069999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43126</v>
       </c>
@@ -589,8 +626,9 @@
       <c r="C20" s="1">
         <v>3558.1288</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43129</v>
       </c>
@@ -600,8 +638,9 @@
       <c r="C21" s="1">
         <v>3523.0007000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43130</v>
       </c>
@@ -611,8 +650,9 @@
       <c r="C22" s="1">
         <v>3488.009</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43131</v>
       </c>
@@ -622,8 +662,9 @@
       <c r="C23" s="1">
         <v>3480.8334</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43132</v>
       </c>
@@ -633,8 +674,9 @@
       <c r="C24" s="1">
         <v>3446.9798999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43133</v>
       </c>
@@ -644,8 +686,9 @@
       <c r="C25" s="1">
         <v>3462.0808000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43136</v>
       </c>
@@ -655,8 +698,9 @@
       <c r="C26" s="1">
         <v>3487.4969999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43137</v>
       </c>
@@ -666,8 +710,9 @@
       <c r="C27" s="1">
         <v>3370.652</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43138</v>
       </c>
@@ -677,8 +722,9 @@
       <c r="C28" s="1">
         <v>3309.2597999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43139</v>
       </c>
@@ -688,8 +734,9 @@
       <c r="C29" s="1">
         <v>3262.0504000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43140</v>
       </c>
@@ -699,8 +746,9 @@
       <c r="C30" s="1">
         <v>3129.8508000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43143</v>
       </c>
@@ -710,8 +758,9 @@
       <c r="C31" s="1">
         <v>3154.1253999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43144</v>
       </c>
@@ -721,8 +770,9 @@
       <c r="C32" s="1">
         <v>3184.9587000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43145</v>
       </c>
@@ -732,8 +782,9 @@
       <c r="C33" s="1">
         <v>3199.1588999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43153</v>
       </c>
@@ -743,8 +794,9 @@
       <c r="C34" s="1">
         <v>3268.5589</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43154</v>
       </c>
@@ -754,8 +806,9 @@
       <c r="C35" s="1">
         <v>3289.0241000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43157</v>
       </c>
@@ -765,8 +818,9 @@
       <c r="C36" s="1">
         <v>3329.5736999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43158</v>
       </c>
@@ -776,8 +830,9 @@
       <c r="C37" s="1">
         <v>3292.0679</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43159</v>
       </c>
@@ -787,8 +842,9 @@
       <c r="C38" s="1">
         <v>3259.4079999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43160</v>
       </c>
@@ -798,8 +854,9 @@
       <c r="C39" s="1">
         <v>3273.7548999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43161</v>
       </c>
@@ -809,8 +866,9 @@
       <c r="C40" s="1">
         <v>3254.5282999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43164</v>
       </c>
@@ -820,8 +878,9 @@
       <c r="C41" s="1">
         <v>3256.9263000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43165</v>
       </c>
@@ -831,8 +890,9 @@
       <c r="C42" s="1">
         <v>3289.6419000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43166</v>
       </c>
@@ -842,8 +902,9 @@
       <c r="C43" s="1">
         <v>3271.6682999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43167</v>
       </c>
@@ -853,8 +914,9 @@
       <c r="C44" s="1">
         <v>3288.4054999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43168</v>
       </c>
@@ -864,8 +926,9 @@
       <c r="C45" s="1">
         <v>3307.1655999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43171</v>
       </c>
@@ -875,8 +938,9 @@
       <c r="C46" s="1">
         <v>3326.6992</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43172</v>
       </c>
@@ -886,8 +950,9 @@
       <c r="C47" s="1">
         <v>3310.2388999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43173</v>
       </c>
@@ -897,8 +962,9 @@
       <c r="C48" s="1">
         <v>3291.3818999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43174</v>
       </c>
@@ -908,8 +974,9 @@
       <c r="C49" s="1">
         <v>3291.1120000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43175</v>
       </c>
@@ -919,8 +986,9 @@
       <c r="C50" s="1">
         <v>3269.8820999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43178</v>
       </c>
@@ -930,8 +998,9 @@
       <c r="C51" s="1">
         <v>3279.2516999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43179</v>
       </c>
@@ -941,8 +1010,9 @@
       <c r="C52" s="1">
         <v>3290.6399000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43180</v>
       </c>
@@ -952,8 +1022,9 @@
       <c r="C53" s="1">
         <v>3280.9521</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43181</v>
       </c>
@@ -963,8 +1034,9 @@
       <c r="C54" s="1">
         <v>3263.4803000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43182</v>
       </c>
@@ -974,8 +1046,9 @@
       <c r="C55" s="1">
         <v>3152.7608</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43185</v>
       </c>
@@ -985,8 +1058,9 @@
       <c r="C56" s="1">
         <v>3133.7217999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43186</v>
       </c>
@@ -996,8 +1070,9 @@
       <c r="C57" s="1">
         <v>3166.6487999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43187</v>
       </c>
@@ -1007,8 +1082,9 @@
       <c r="C58" s="1">
         <v>3122.2894999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43188</v>
       </c>
@@ -1018,8 +1094,9 @@
       <c r="C59" s="1">
         <v>3160.5306</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43189</v>
       </c>
@@ -1029,8 +1106,9 @@
       <c r="C60" s="1">
         <v>3168.8966</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43192</v>
       </c>
@@ -1040,8 +1118,9 @@
       <c r="C61" s="1">
         <v>3163.1790000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43193</v>
       </c>
@@ -1051,8 +1130,9 @@
       <c r="C62" s="1">
         <v>3136.6332000000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43194</v>
       </c>
@@ -1062,8 +1142,9 @@
       <c r="C63" s="1">
         <v>3131.1113999999998</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43199</v>
       </c>
@@ -1073,8 +1154,9 @@
       <c r="C64" s="1">
         <v>3138.2936</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43200</v>
       </c>
@@ -1084,8 +1166,9 @@
       <c r="C65" s="1">
         <v>3190.3216000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43201</v>
       </c>
@@ -1095,8 +1178,9 @@
       <c r="C66" s="1">
         <v>3208.0817999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43202</v>
       </c>
@@ -1106,8 +1190,9 @@
       <c r="C67" s="1">
         <v>3180.1583000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43203</v>
       </c>
@@ -1117,8 +1202,9 @@
       <c r="C68" s="1">
         <v>3159.0520999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43206</v>
       </c>
@@ -1128,8 +1214,9 @@
       <c r="C69" s="1">
         <v>3110.6489000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43207</v>
       </c>
@@ -1139,8 +1226,9 @@
       <c r="C70" s="1">
         <v>3066.7966999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43208</v>
       </c>
@@ -1150,8 +1238,9 @@
       <c r="C71" s="1">
         <v>3091.3987000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43209</v>
       </c>
@@ -1161,8 +1250,9 @@
       <c r="C72" s="1">
         <v>3117.3760000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43210</v>
       </c>
@@ -1172,8 +1262,9 @@
       <c r="C73" s="1">
         <v>3071.5425</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43213</v>
       </c>
@@ -1183,8 +1274,9 @@
       <c r="C74" s="1">
         <v>3068.0120000000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43214</v>
       </c>
@@ -1194,8 +1286,9 @@
       <c r="C75" s="1">
         <v>3128.9270999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43215</v>
       </c>
@@ -1205,8 +1298,9 @@
       <c r="C76" s="1">
         <v>3117.9739</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43216</v>
       </c>
@@ -1216,8 +1310,9 @@
       <c r="C77" s="1">
         <v>3075.0300999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43217</v>
       </c>
@@ -1227,8 +1322,9 @@
       <c r="C78" s="1">
         <v>3082.2316000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43222</v>
       </c>
@@ -1238,8 +1334,9 @@
       <c r="C79" s="1">
         <v>3081.1772999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43223</v>
       </c>
@@ -1249,8 +1346,9 @@
       <c r="C80" s="1">
         <v>3100.8586</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43224</v>
       </c>
@@ -1260,8 +1358,9 @@
       <c r="C81" s="1">
         <v>3091.0333999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43227</v>
       </c>
@@ -1271,8 +1370,9 @@
       <c r="C82" s="1">
         <v>3136.6448</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43228</v>
       </c>
@@ -1282,8 +1382,9 @@
       <c r="C83" s="1">
         <v>3161.4976000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43229</v>
       </c>
@@ -1293,8 +1394,9 @@
       <c r="C84" s="1">
         <v>3159.1502</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43230</v>
       </c>
@@ -1304,8 +1406,9 @@
       <c r="C85" s="1">
         <v>3174.4126999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43231</v>
       </c>
@@ -1315,8 +1418,9 @@
       <c r="C86" s="1">
         <v>3163.2631999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43234</v>
       </c>
@@ -1326,8 +1430,9 @@
       <c r="C87" s="1">
         <v>3174.0320000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43235</v>
       </c>
@@ -1337,8 +1442,9 @@
       <c r="C88" s="1">
         <v>3192.1183000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43236</v>
       </c>
@@ -1348,8 +1454,9 @@
       <c r="C89" s="1">
         <v>3169.5652</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43237</v>
       </c>
@@ -1359,8 +1466,9 @@
       <c r="C90" s="1">
         <v>3154.2824999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43238</v>
       </c>
@@ -1370,8 +1478,9 @@
       <c r="C91" s="1">
         <v>3193.3033999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43241</v>
       </c>
@@ -1381,8 +1490,9 @@
       <c r="C92" s="1">
         <v>3213.8404</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43242</v>
       </c>
@@ -1392,8 +1502,9 @@
       <c r="C93" s="1">
         <v>3214.3497000000002</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43243</v>
       </c>
@@ -1403,8 +1514,9 @@
       <c r="C94" s="1">
         <v>3168.9641999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43244</v>
       </c>
@@ -1414,8 +1526,9 @@
       <c r="C95" s="1">
         <v>3154.6505999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43245</v>
       </c>
@@ -1425,8 +1538,9 @@
       <c r="C96" s="1">
         <v>3141.3031999999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43248</v>
       </c>
@@ -1436,8 +1550,9 @@
       <c r="C97" s="1">
         <v>3135.0821000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43249</v>
       </c>
@@ -1447,8 +1562,9 @@
       <c r="C98" s="1">
         <v>3120.4605000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43250</v>
       </c>
@@ -1458,8 +1574,9 @@
       <c r="C99" s="1">
         <v>3041.4434000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43251</v>
       </c>
@@ -1469,8 +1586,9 @@
       <c r="C100" s="1">
         <v>3095.4737</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43252</v>
       </c>
@@ -1480,8 +1598,9 @@
       <c r="C101" s="1">
         <v>3075.1372000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43255</v>
       </c>
@@ -1491,8 +1610,9 @@
       <c r="C102" s="1">
         <v>3091.1909000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43256</v>
       </c>
@@ -1502,8 +1622,9 @@
       <c r="C103" s="1">
         <v>3114.2055</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43257</v>
       </c>
@@ -1513,8 +1634,9 @@
       <c r="C104" s="1">
         <v>3115.1803</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43258</v>
       </c>
@@ -1524,8 +1646,9 @@
       <c r="C105" s="1">
         <v>3109.4987999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43259</v>
       </c>
@@ -1535,8 +1658,9 @@
       <c r="C106" s="1">
         <v>3067.1478000000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43262</v>
       </c>
@@ -1546,8 +1670,9 @@
       <c r="C107" s="1">
         <v>3052.7831000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43263</v>
       </c>
@@ -1557,8 +1682,9 @@
       <c r="C108" s="1">
         <v>3079.8018000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43264</v>
       </c>
@@ -1568,8 +1694,9 @@
       <c r="C109" s="1">
         <v>3049.7964999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43265</v>
       </c>
@@ -1579,8 +1706,9 @@
       <c r="C110" s="1">
         <v>3044.1597000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43266</v>
       </c>
@@ -1590,8 +1718,9 @@
       <c r="C111" s="1">
         <v>3021.9007999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43270</v>
       </c>
@@ -1601,8 +1730,9 @@
       <c r="C112" s="1">
         <v>2907.8220999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43271</v>
       </c>
@@ -1612,8 +1742,9 @@
       <c r="C113" s="1">
         <v>2915.7314000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43272</v>
       </c>
@@ -1623,8 +1754,9 @@
       <c r="C114" s="1">
         <v>2875.8099000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43273</v>
       </c>
@@ -1634,8 +1766,9 @@
       <c r="C115" s="1">
         <v>2889.7602999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43276</v>
       </c>
@@ -1645,8 +1778,9 @@
       <c r="C116" s="1">
         <v>2859.3364000000001</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43277</v>
       </c>
@@ -1656,8 +1790,9 @@
       <c r="C117" s="1">
         <v>2844.5081</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43278</v>
       </c>
@@ -1667,8 +1802,9 @@
       <c r="C118" s="1">
         <v>2813.1774999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43279</v>
       </c>
@@ -1678,8 +1814,9 @@
       <c r="C119" s="1">
         <v>2786.8966</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43280</v>
       </c>
@@ -1689,8 +1826,9 @@
       <c r="C120" s="1">
         <v>2847.4180999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43283</v>
       </c>
@@ -1700,8 +1838,9 @@
       <c r="C121" s="1">
         <v>2775.5569999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43284</v>
       </c>
@@ -1711,8 +1850,9 @@
       <c r="C122" s="1">
         <v>2786.8878</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43285</v>
       </c>
@@ -1722,8 +1862,9 @@
       <c r="C123" s="1">
         <v>2759.1260000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43286</v>
       </c>
@@ -1733,8 +1874,9 @@
       <c r="C124" s="1">
         <v>2733.8818999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43287</v>
       </c>
@@ -1744,8 +1886,9 @@
       <c r="C125" s="1">
         <v>2747.2285000000002</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43290</v>
       </c>
@@ -1755,8 +1898,9 @@
       <c r="C126" s="1">
         <v>2815.1095</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43291</v>
       </c>
@@ -1766,8 +1910,9 @@
       <c r="C127" s="1">
         <v>2827.6251999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43292</v>
       </c>
@@ -1777,8 +1922,9 @@
       <c r="C128" s="1">
         <v>2777.7710999999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43293</v>
       </c>
@@ -1788,8 +1934,9 @@
       <c r="C129" s="1">
         <v>2837.6586000000002</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43294</v>
       </c>
@@ -1799,8 +1946,9 @@
       <c r="C130" s="1">
         <v>2831.1837</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43297</v>
       </c>
@@ -1810,8 +1958,9 @@
       <c r="C131" s="1">
         <v>2814.0418</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43298</v>
       </c>
@@ -1821,8 +1970,9 @@
       <c r="C132" s="1">
         <v>2798.1259</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43299</v>
       </c>
@@ -1832,8 +1982,9 @@
       <c r="C133" s="1">
         <v>2787.2570000000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43300</v>
       </c>
@@ -1843,8 +1994,9 @@
       <c r="C134" s="1">
         <v>2772.5454</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43301</v>
       </c>
@@ -1854,8 +2006,9 @@
       <c r="C135" s="1">
         <v>2829.2712000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43304</v>
       </c>
@@ -1865,8 +2018,9 @@
       <c r="C136" s="1">
         <v>2859.5423999999998</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43305</v>
       </c>
@@ -1876,8 +2030,9 @@
       <c r="C137" s="1">
         <v>2905.5617999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43306</v>
       </c>
@@ -1887,8 +2042,9 @@
       <c r="C138" s="1">
         <v>2903.6466999999998</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43307</v>
       </c>
@@ -1898,8 +2054,9 @@
       <c r="C139" s="1">
         <v>2882.2253999999998</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43308</v>
       </c>
@@ -1909,8 +2066,9 @@
       <c r="C140" s="1">
         <v>2873.5938000000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43311</v>
       </c>
@@ -1920,8 +2078,9 @@
       <c r="C141" s="1">
         <v>2869.0495000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43312</v>
       </c>
@@ -1931,8 +2090,9 @@
       <c r="C142" s="1">
         <v>2876.4009000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>43313</v>
       </c>
@@ -1942,8 +2102,9 @@
       <c r="C143" s="1">
         <v>2824.5337</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>43314</v>
       </c>
@@ -1953,8 +2114,9 @@
       <c r="C144" s="1">
         <v>2768.0239000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43315</v>
       </c>
@@ -1964,8 +2126,9 @@
       <c r="C145" s="1">
         <v>2740.4429</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>43318</v>
       </c>
@@ -1975,8 +2138,9 @@
       <c r="C146" s="1">
         <v>2705.1565000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>43319</v>
       </c>
@@ -1986,8 +2150,9 @@
       <c r="C147" s="1">
         <v>2779.3739999999998</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>43320</v>
       </c>
@@ -1997,8 +2162,9 @@
       <c r="C148" s="1">
         <v>2744.0695999999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>43321</v>
       </c>
@@ -2008,8 +2174,9 @@
       <c r="C149" s="1">
         <v>2794.3818000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>43322</v>
       </c>
@@ -2019,8 +2186,9 @@
       <c r="C150" s="1">
         <v>2795.3099000000002</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>43325</v>
       </c>
@@ -2030,8 +2198,9 @@
       <c r="C151" s="1">
         <v>2785.8719999999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>43326</v>
       </c>
@@ -2041,8 +2210,9 @@
       <c r="C152" s="1">
         <v>2780.9645999999998</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>43327</v>
       </c>
@@ -2052,8 +2222,9 @@
       <c r="C153" s="1">
         <v>2723.2575999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>43328</v>
       </c>
@@ -2063,8 +2234,9 @@
       <c r="C154" s="1">
         <v>2705.1916999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>43329</v>
       </c>
@@ -2074,8 +2246,9 @@
       <c r="C155" s="1">
         <v>2668.9659999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>43332</v>
       </c>
@@ -2085,8 +2258,9 @@
       <c r="C156" s="1">
         <v>2698.4657999999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>43333</v>
       </c>
@@ -2096,8 +2270,9 @@
       <c r="C157" s="1">
         <v>2733.8263999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>43334</v>
       </c>
@@ -2107,8 +2282,9 @@
       <c r="C158" s="1">
         <v>2714.6082000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>43335</v>
       </c>
@@ -2118,8 +2294,9 @@
       <c r="C159" s="1">
         <v>2724.6244000000002</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>43336</v>
       </c>
@@ -2129,8 +2306,9 @@
       <c r="C160" s="1">
         <v>2729.4308000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>43339</v>
       </c>
@@ -2140,8 +2318,9 @@
       <c r="C161" s="1">
         <v>2780.8989999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>43340</v>
       </c>
@@ -2151,8 +2330,9 @@
       <c r="C162" s="1">
         <v>2777.9807999999998</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>43341</v>
       </c>
@@ -2162,8 +2342,9 @@
       <c r="C163" s="1">
         <v>2769.2946999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>43342</v>
       </c>
@@ -2173,8 +2354,9 @@
       <c r="C164" s="1">
         <v>2737.7366999999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
@@ -2184,8 +2366,9 @@
       <c r="C165" s="1">
         <v>2725.2498999999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>43346</v>
       </c>
@@ -2195,8 +2378,9 @@
       <c r="C166" s="1">
         <v>2720.7343999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>43347</v>
       </c>
@@ -2206,8 +2390,9 @@
       <c r="C167" s="1">
         <v>2750.5803999999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>43348</v>
       </c>
@@ -2217,8 +2402,9 @@
       <c r="C168" s="1">
         <v>2704.3368</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>43349</v>
       </c>
@@ -2228,8 +2414,9 @@
       <c r="C169" s="1">
         <v>2691.5929000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>43350</v>
       </c>
@@ -2239,8 +2426,9 @@
       <c r="C170" s="1">
         <v>2702.3006999999998</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>43353</v>
       </c>
@@ -2250,8 +2438,9 @@
       <c r="C171" s="1">
         <v>2669.4845</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>43354</v>
       </c>
@@ -2261,8 +2450,9 @@
       <c r="C172" s="1">
         <v>2664.7997</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>43355</v>
       </c>
@@ -2272,8 +2462,9 @@
       <c r="C173" s="1">
         <v>2656.1100999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>43356</v>
       </c>
@@ -2283,8 +2474,9 @@
       <c r="C174" s="1">
         <v>2686.5783999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>43357</v>
       </c>
@@ -2294,8 +2486,9 @@
       <c r="C175" s="1">
         <v>2681.6430999999998</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>43360</v>
       </c>
@@ -2305,8 +2498,9 @@
       <c r="C176" s="1">
         <v>2651.7885999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>43361</v>
       </c>
@@ -2316,8 +2510,9 @@
       <c r="C177" s="1">
         <v>2699.9501</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>43362</v>
       </c>
@@ -2327,8 +2522,9 @@
       <c r="C178" s="1">
         <v>2730.8503000000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>43363</v>
       </c>
@@ -2338,8 +2534,9 @@
       <c r="C179" s="1">
         <v>2729.2438000000002</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>43364</v>
       </c>
@@ -2349,8 +2546,9 @@
       <c r="C180" s="1">
         <v>2797.4848000000002</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>43368</v>
       </c>
@@ -2360,8 +2558,9 @@
       <c r="C181" s="1">
         <v>2781.1385</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>43369</v>
       </c>
@@ -2371,8 +2570,9 @@
       <c r="C182" s="1">
         <v>2806.8132999999998</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>43370</v>
       </c>
@@ -2382,8 +2582,9 @@
       <c r="C183" s="1">
         <v>2791.7748000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>43371</v>
       </c>
@@ -2393,8 +2594,9 @@
       <c r="C184" s="1">
         <v>2821.3501000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>43381</v>
       </c>
@@ -2404,8 +2606,9 @@
       <c r="C185" s="1">
         <v>2716.5104000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>43382</v>
       </c>
@@ -2415,8 +2618,9 @@
       <c r="C186" s="1">
         <v>2721.0129999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>43383</v>
       </c>
@@ -2426,8 +2630,9 @@
       <c r="C187" s="1">
         <v>2725.8366999999998</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>43384</v>
       </c>
@@ -2437,8 +2642,9 @@
       <c r="C188" s="1">
         <v>2583.4575</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>43385</v>
       </c>
@@ -2448,8 +2654,9 @@
       <c r="C189" s="1">
         <v>2606.9124999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>43388</v>
       </c>
@@ -2459,8 +2666,9 @@
       <c r="C190" s="1">
         <v>2568.0983999999999</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>43389</v>
       </c>
@@ -2470,8 +2678,9 @@
       <c r="C191" s="1">
         <v>2546.3296</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>43390</v>
       </c>
@@ -2481,8 +2690,9 @@
       <c r="C192" s="1">
         <v>2561.614</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>43391</v>
       </c>
@@ -2492,8 +2702,9 @@
       <c r="C193" s="1">
         <v>2486.4186</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>43392</v>
       </c>
@@ -2503,8 +2714,9 @@
       <c r="C194" s="1">
         <v>2550.4652000000001</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>43395</v>
       </c>
@@ -2514,8 +2726,9 @@
       <c r="C195" s="1">
         <v>2654.8762000000002</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>43396</v>
       </c>
@@ -2525,8 +2738,9 @@
       <c r="C196" s="1">
         <v>2594.8254999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>43397</v>
       </c>
@@ -2536,8 +2750,9 @@
       <c r="C197" s="1">
         <v>2603.2950999999998</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>43398</v>
       </c>
@@ -2547,8 +2762,9 @@
       <c r="C198" s="1">
         <v>2603.7995000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>43399</v>
       </c>
@@ -2558,8 +2774,9 @@
       <c r="C199" s="1">
         <v>2598.8467999999998</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>43402</v>
       </c>
@@ -2569,8 +2786,9 @@
       <c r="C200" s="1">
         <v>2542.1033000000002</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>43403</v>
       </c>
@@ -2580,8 +2798,9 @@
       <c r="C201" s="1">
         <v>2568.0481</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>43404</v>
       </c>
@@ -2591,8 +2810,9 @@
       <c r="C202" s="1">
         <v>2602.7831999999999</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="3"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>43405</v>
       </c>
@@ -2602,8 +2822,9 @@
       <c r="C203" s="1">
         <v>2606.2372</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>43406</v>
       </c>
@@ -2613,8 +2834,9 @@
       <c r="C204" s="1">
         <v>2676.4762000000001</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>43409</v>
       </c>
@@ -2624,8 +2846,9 @@
       <c r="C205" s="1">
         <v>2665.4306000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="3"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>43410</v>
       </c>
@@ -2635,8 +2858,9 @@
       <c r="C206" s="1">
         <v>2659.3564000000001</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>43411</v>
       </c>
@@ -2646,8 +2870,9 @@
       <c r="C207" s="1">
         <v>2641.3420000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>43412</v>
       </c>
@@ -2657,8 +2882,9 @@
       <c r="C208" s="1">
         <v>2635.6322</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>43413</v>
       </c>
@@ -2668,8 +2894,9 @@
       <c r="C209" s="1">
         <v>2598.8715000000002</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="3"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>43416</v>
       </c>
@@ -2679,8 +2906,9 @@
       <c r="C210" s="1">
         <v>2630.5194999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="3"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>43417</v>
       </c>
@@ -2690,8 +2918,9 @@
       <c r="C211" s="1">
         <v>2654.8795</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="3"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>43418</v>
       </c>
@@ -2701,8 +2930,9 @@
       <c r="C212" s="1">
         <v>2632.2424999999998</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="3"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>43419</v>
       </c>
@@ -2712,8 +2942,9 @@
       <c r="C213" s="1">
         <v>2668.1704</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="3"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>43420</v>
       </c>
@@ -2723,8 +2954,9 @@
       <c r="C214" s="1">
         <v>2679.1097</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>43423</v>
       </c>
@@ -2734,8 +2966,9 @@
       <c r="C215" s="1">
         <v>2703.5115999999998</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" s="3"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>43424</v>
       </c>
@@ -2745,8 +2978,9 @@
       <c r="C216" s="1">
         <v>2645.8544999999999</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" s="3"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>43425</v>
       </c>
@@ -2756,8 +2990,9 @@
       <c r="C217" s="1">
         <v>2651.5052999999998</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" s="3"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>43426</v>
       </c>
@@ -2767,8 +3002,9 @@
       <c r="C218" s="1">
         <v>2645.4339</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" s="3"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>43427</v>
       </c>
@@ -2778,8 +3014,9 @@
       <c r="C219" s="1">
         <v>2579.4830999999999</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="3"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>43430</v>
       </c>
@@ -2789,8 +3026,9 @@
       <c r="C220" s="1">
         <v>2575.8101000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" s="3"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>43431</v>
       </c>
@@ -2800,8 +3038,9 @@
       <c r="C221" s="1">
         <v>2574.6792</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" s="3"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>43432</v>
       </c>
@@ -2811,8 +3050,9 @@
       <c r="C222" s="1">
         <v>2601.7365</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" s="3"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>43433</v>
       </c>
@@ -2822,8 +3062,9 @@
       <c r="C223" s="1">
         <v>2567.4434000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" s="3"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>43434</v>
       </c>
@@ -2833,8 +3074,9 @@
       <c r="C224" s="1">
         <v>2588.1875</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>43437</v>
       </c>
@@ -2844,8 +3086,9 @@
       <c r="C225" s="1">
         <v>2654.7979999999998</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" s="3"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>43438</v>
       </c>
@@ -2855,8 +3098,9 @@
       <c r="C226" s="1">
         <v>2665.9576999999999</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" s="3"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>43439</v>
       </c>
@@ -2866,8 +3110,9 @@
       <c r="C227" s="1">
         <v>2649.8051</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" s="3"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>43440</v>
       </c>
@@ -2877,8 +3122,9 @@
       <c r="C228" s="1">
         <v>2605.1813000000002</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" s="3"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>43441</v>
       </c>
@@ -2888,8 +3134,9 @@
       <c r="C229" s="1">
         <v>2605.8876</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" s="3"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>43444</v>
       </c>
@@ -2899,8 +3146,9 @@
       <c r="C230" s="1">
         <v>2584.5821999999998</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" s="3"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>43445</v>
       </c>
@@ -2910,8 +3158,9 @@
       <c r="C231" s="1">
         <v>2594.0880999999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" s="3"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>43446</v>
       </c>
@@ -2921,8 +3170,9 @@
       <c r="C232" s="1">
         <v>2602.1525999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" s="3"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>43447</v>
       </c>
@@ -2932,8 +3182,9 @@
       <c r="C233" s="1">
         <v>2634.0491000000002</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="3"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>43448</v>
       </c>
@@ -2943,8 +3194,9 @@
       <c r="C234" s="1">
         <v>2593.7406999999998</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" s="3"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>43451</v>
       </c>
@@ -2954,8 +3206,9 @@
       <c r="C235" s="1">
         <v>2597.9737</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="3"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>43452</v>
       </c>
@@ -2965,8 +3218,9 @@
       <c r="C236" s="1">
         <v>2576.6495</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" s="3"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>43453</v>
       </c>
@@ -2976,8 +3230,9 @@
       <c r="C237" s="1">
         <v>2549.5634</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" s="3"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>43454</v>
       </c>
@@ -2987,8 +3242,9 @@
       <c r="C238" s="1">
         <v>2536.2674999999999</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" s="3"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>43455</v>
       </c>
@@ -2998,8 +3254,9 @@
       <c r="C239" s="1">
         <v>2516.2505999999998</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" s="3"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>43458</v>
       </c>
@@ -3009,8 +3266,9 @@
       <c r="C240" s="1">
         <v>2527.0070999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="3"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>43459</v>
       </c>
@@ -3020,8 +3278,9 @@
       <c r="C241" s="1">
         <v>2504.819</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" s="3"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>43460</v>
       </c>
@@ -3031,8 +3290,9 @@
       <c r="C242" s="1">
         <v>2498.2939000000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="3"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>43461</v>
       </c>
@@ -3042,8 +3302,9 @@
       <c r="C243" s="1">
         <v>2483.0864000000001</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" s="3"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>43462</v>
       </c>
@@ -3053,8 +3314,9 @@
       <c r="C244" s="1">
         <v>2493.8962000000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" s="3"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>43467</v>
       </c>
@@ -3064,8 +3326,9 @@
       <c r="C245" s="1">
         <v>2465.2910000000002</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>43468</v>
       </c>
@@ -3075,8 +3338,9 @@
       <c r="C246" s="1">
         <v>2464.3627999999999</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" s="3"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>43469</v>
       </c>
@@ -3086,8 +3350,9 @@
       <c r="C247" s="1">
         <v>2514.8681999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" s="3"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>43472</v>
       </c>
@@ -3097,8 +3362,9 @@
       <c r="C248" s="1">
         <v>2533.0886999999998</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" s="3"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>43473</v>
       </c>
@@ -3108,8 +3374,9 @@
       <c r="C249" s="1">
         <v>2526.4621999999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" s="3"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>43474</v>
       </c>
@@ -3119,8 +3386,9 @@
       <c r="C250" s="1">
         <v>2544.3449000000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" s="3"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>43475</v>
       </c>
@@ -3130,8 +3398,9 @@
       <c r="C251" s="1">
         <v>2535.0985000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" s="3"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>43476</v>
       </c>
@@ -3141,8 +3410,9 @@
       <c r="C252" s="1">
         <v>2553.8312999999998</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" s="3"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>43479</v>
       </c>
@@ -3152,8 +3422,9 @@
       <c r="C253" s="1">
         <v>2535.7653</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" s="3"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>43480</v>
       </c>
@@ -3163,8 +3434,9 @@
       <c r="C254" s="1">
         <v>2570.3449000000001</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" s="3"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>43481</v>
       </c>
@@ -3174,8 +3446,9 @@
       <c r="C255" s="1">
         <v>2570.4220999999998</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" s="3"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>43482</v>
       </c>
@@ -3185,8 +3458,9 @@
       <c r="C256" s="1">
         <v>2559.6370000000002</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" s="3"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>43483</v>
       </c>
@@ -3196,8 +3470,9 @@
       <c r="C257" s="1">
         <v>2596.0056</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" s="3"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>43486</v>
       </c>
@@ -3207,8 +3482,9 @@
       <c r="C258" s="1">
         <v>2610.5093999999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" s="3"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>43487</v>
       </c>
@@ -3218,8 +3494,9 @@
       <c r="C259" s="1">
         <v>2579.7040999999999</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" s="3"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>43488</v>
       </c>
@@ -3229,8 +3506,9 @@
       <c r="C260" s="1">
         <v>2581.0041000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" s="3"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>43489</v>
       </c>
@@ -3240,8 +3518,9 @@
       <c r="C261" s="1">
         <v>2591.6934999999999</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" s="3"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>43490</v>
       </c>
@@ -3251,8 +3530,9 @@
       <c r="C262" s="1">
         <v>2601.7233999999999</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" s="3"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>43493</v>
       </c>
@@ -3262,8 +3542,9 @@
       <c r="C263" s="1">
         <v>2596.9767000000002</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" s="3"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>43494</v>
       </c>
@@ -3273,8 +3554,9 @@
       <c r="C264" s="1">
         <v>2594.2536</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" s="3"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>43495</v>
       </c>
@@ -3284,8 +3566,9 @@
       <c r="C265" s="1">
         <v>2575.5756000000001</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" s="3"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>43496</v>
       </c>
@@ -3295,8 +3578,9 @@
       <c r="C266" s="1">
         <v>2584.5724</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" s="3"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>43497</v>
       </c>
@@ -3306,8 +3590,9 @@
       <c r="C267" s="1">
         <v>2618.2323000000001</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" s="3"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>43507</v>
       </c>
@@ -3317,8 +3602,9 @@
       <c r="C268" s="1">
         <v>2653.8960000000002</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" s="3"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>43508</v>
       </c>
@@ -3328,8 +3614,9 @@
       <c r="C269" s="1">
         <v>2671.8937000000001</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" s="3"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>43509</v>
       </c>
@@ -3339,8 +3626,9 @@
       <c r="C270" s="1">
         <v>2721.0682999999999</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" s="3"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>43510</v>
       </c>
@@ -3350,8 +3638,9 @@
       <c r="C271" s="1">
         <v>2719.6999000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" s="3"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>43511</v>
       </c>
@@ -3361,8 +3650,9 @@
       <c r="C272" s="1">
         <v>2682.3850000000002</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" s="3"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>43514</v>
       </c>
@@ -3372,8 +3662,9 @@
       <c r="C273" s="1">
         <v>2754.3566000000001</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" s="3"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>43515</v>
       </c>
@@ -3383,8 +3674,9 @@
       <c r="C274" s="1">
         <v>2755.6459</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" s="3"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>43516</v>
       </c>
@@ -3394,8 +3686,9 @@
       <c r="C275" s="1">
         <v>2761.2188999999998</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" s="3"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>43517</v>
       </c>
@@ -3405,8 +3698,9 @@
       <c r="C276" s="1">
         <v>2751.8011999999999</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" s="3"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>43518</v>
       </c>
@@ -3416,8 +3710,9 @@
       <c r="C277" s="1">
         <v>2804.2262000000001</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" s="3"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>43521</v>
       </c>
@@ -3427,8 +3722,9 @@
       <c r="C278" s="1">
         <v>2961.2833999999998</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" s="3"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>43522</v>
       </c>
@@ -3438,8 +3734,9 @@
       <c r="C279" s="1">
         <v>2941.5162999999998</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" s="3"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>43523</v>
       </c>
@@ -3449,8 +3746,9 @@
       <c r="C280" s="1">
         <v>2953.8242</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" s="3"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>43524</v>
       </c>
@@ -3460,8 +3758,9 @@
       <c r="C281" s="1">
         <v>2940.9537999999998</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" s="3"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>43525</v>
       </c>
@@ -3471,8 +3770,9 @@
       <c r="C282" s="1">
         <v>2994.0050000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282" s="3"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>43528</v>
       </c>
@@ -3482,8 +3782,9 @@
       <c r="C283" s="1">
         <v>3027.5754999999999</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283" s="3"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>43529</v>
       </c>
@@ -3493,8 +3794,9 @@
       <c r="C284" s="1">
         <v>3054.2465999999999</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284" s="3"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>43530</v>
       </c>
@@ -3504,8 +3806,9 @@
       <c r="C285" s="1">
         <v>3102.0990999999999</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285" s="3"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>43531</v>
       </c>
@@ -3515,8 +3818,9 @@
       <c r="C286" s="1">
         <v>3106.4178999999999</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286" s="3"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>43532</v>
       </c>
@@ -3526,8 +3830,9 @@
       <c r="C287" s="1">
         <v>2969.8613999999998</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287" s="3"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>43535</v>
       </c>
@@ -3537,8 +3842,9 @@
       <c r="C288" s="1">
         <v>3026.9924999999998</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" s="3"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>43536</v>
       </c>
@@ -3548,8 +3854,9 @@
       <c r="C289" s="1">
         <v>3060.3072999999999</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" s="3"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>43537</v>
       </c>
@@ -3559,8 +3866,9 @@
       <c r="C290" s="1">
         <v>3026.9513000000002</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" s="3"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>43538</v>
       </c>
@@ -3570,8 +3878,9 @@
       <c r="C291" s="1">
         <v>2990.6849999999999</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" s="3"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>43539</v>
       </c>
@@ -3581,8 +3890,9 @@
       <c r="C292" s="1">
         <v>3021.7512000000002</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" s="3"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>43542</v>
       </c>
@@ -3592,8 +3902,9 @@
       <c r="C293" s="1">
         <v>3096.4176000000002</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" s="3"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>43543</v>
       </c>
@@ -3603,8 +3914,9 @@
       <c r="C294" s="1">
         <v>3090.9749999999999</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" s="3"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>43544</v>
       </c>
@@ -3614,8 +3926,9 @@
       <c r="C295" s="1">
         <v>3090.6403</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" s="3"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>43545</v>
       </c>
@@ -3625,8 +3938,9 @@
       <c r="C296" s="1">
         <v>3101.4549999999999</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" s="3"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>43546</v>
       </c>
@@ -3636,8 +3950,9 @@
       <c r="C297" s="1">
         <v>3104.1487000000002</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" s="3"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>43549</v>
       </c>
@@ -3647,8 +3962,9 @@
       <c r="C298" s="1">
         <v>3043.0313000000001</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" s="3"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>43550</v>
       </c>
@@ -3658,8 +3974,9 @@
       <c r="C299" s="1">
         <v>2997.0954000000002</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" s="3"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>43551</v>
       </c>
@@ -3669,8 +3986,9 @@
       <c r="C300" s="1">
         <v>3022.7195999999999</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" s="3"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>43552</v>
       </c>
@@ -3680,8 +3998,9 @@
       <c r="C301" s="1">
         <v>2994.9434000000001</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" s="3"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>43553</v>
       </c>
@@ -3691,8 +4010,9 @@
       <c r="C302" s="1">
         <v>3090.7579999999998</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302" s="3"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>43556</v>
       </c>
@@ -3702,8 +4022,9 @@
       <c r="C303" s="1">
         <v>3170.3609999999999</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303" s="3"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>43557</v>
       </c>
@@ -3713,8 +4034,9 @@
       <c r="C304" s="1">
         <v>3176.8227000000002</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" s="3"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>43558</v>
       </c>
@@ -3724,8 +4046,9 @@
       <c r="C305" s="1">
         <v>3216.2952</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" s="3"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>43559</v>
       </c>
@@ -3735,8 +4058,9 @@
       <c r="C306" s="1">
         <v>3246.5713999999998</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" s="3"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>43563</v>
       </c>
@@ -3746,8 +4070,9 @@
       <c r="C307" s="1">
         <v>3244.8103000000001</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" s="3"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>43564</v>
       </c>
@@ -3757,8 +4082,9 @@
       <c r="C308" s="1">
         <v>3239.6639</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308" s="3"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>43565</v>
       </c>
@@ -3768,8 +4094,9 @@
       <c r="C309" s="1">
         <v>3241.9299000000001</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309" s="3"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>43566</v>
       </c>
@@ -3779,8 +4106,9 @@
       <c r="C310" s="1">
         <v>3189.9618999999998</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" s="3"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>43567</v>
       </c>
@@ -3790,8 +4118,9 @@
       <c r="C311" s="1">
         <v>3188.6255999999998</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" s="3"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>43570</v>
       </c>
@@ -3801,8 +4130,9 @@
       <c r="C312" s="1">
         <v>3177.7865999999999</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312" s="3"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>43571</v>
       </c>
@@ -3812,8 +4142,9 @@
       <c r="C313" s="1">
         <v>3253.5978</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313" s="3"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>43572</v>
       </c>
@@ -3823,8 +4154,9 @@
       <c r="C314" s="1">
         <v>3263.1179000000002</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314" s="3"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>43573</v>
       </c>
@@ -3834,8 +4166,9 @@
       <c r="C315" s="1">
         <v>3250.2012</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315" s="3"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>43574</v>
       </c>
@@ -3845,8 +4178,9 @@
       <c r="C316" s="1">
         <v>3270.7973000000002</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316" s="3"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>43577</v>
       </c>
@@ -3856,8 +4190,9 @@
       <c r="C317" s="1">
         <v>3215.0426000000002</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317" s="3"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>43578</v>
       </c>
@@ -3867,8 +4202,9 @@
       <c r="C318" s="1">
         <v>3198.5938000000001</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318" s="3"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>43579</v>
       </c>
@@ -3878,8 +4214,9 @@
       <c r="C319" s="1">
         <v>3201.6136999999999</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319" s="3"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>43580</v>
       </c>
@@ -3889,8 +4226,9 @@
       <c r="C320" s="1">
         <v>3123.8261000000002</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320" s="3"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>43581</v>
       </c>
@@ -3900,8 +4238,9 @@
       <c r="C321" s="1">
         <v>3086.3989000000001</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321" s="3"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>43584</v>
       </c>
@@ -3911,8 +4250,9 @@
       <c r="C322" s="1">
         <v>3062.4985000000001</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322" s="3"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>43585</v>
       </c>
@@ -3922,8 +4262,9 @@
       <c r="C323" s="1">
         <v>3078.3389000000002</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323" s="3"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>43591</v>
       </c>
@@ -3933,8 +4274,9 @@
       <c r="C324" s="1">
         <v>2906.4639999999999</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324" s="3"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>43592</v>
       </c>
@@ -3944,8 +4286,9 @@
       <c r="C325" s="1">
         <v>2926.3908000000001</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325" s="3"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>43593</v>
       </c>
@@ -3955,8 +4298,9 @@
       <c r="C326" s="1">
         <v>2893.7566999999999</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D326" s="3"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>43594</v>
       </c>
@@ -3966,8 +4310,9 @@
       <c r="C327" s="1">
         <v>2850.9537</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327" s="3"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>43595</v>
       </c>
@@ -3977,8 +4322,9 @@
       <c r="C328" s="1">
         <v>2939.2105999999999</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328" s="3"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>43598</v>
       </c>
@@ -3988,8 +4334,9 @@
       <c r="C329" s="1">
         <v>2903.7130999999999</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329" s="3"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>43599</v>
       </c>
@@ -3999,8 +4346,9 @@
       <c r="C330" s="1">
         <v>2883.6107000000002</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330" s="3"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>43600</v>
       </c>
@@ -4010,8 +4358,9 @@
       <c r="C331" s="1">
         <v>2938.6781000000001</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331" s="3"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>43601</v>
       </c>
@@ -4021,8 +4370,9 @@
       <c r="C332" s="1">
         <v>2955.7109999999998</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D332" s="3"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>43602</v>
       </c>
@@ -4032,8 +4382,9 @@
       <c r="C333" s="1">
         <v>2882.2962000000002</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333" s="3"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>43605</v>
       </c>
@@ -4043,8 +4394,9 @@
       <c r="C334" s="1">
         <v>2870.6046000000001</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334" s="3"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>43606</v>
       </c>
@@ -4054,8 +4406,9 @@
       <c r="C335" s="1">
         <v>2905.9688000000001</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335" s="3"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>43607</v>
       </c>
@@ -4065,8 +4418,9 @@
       <c r="C336" s="1">
         <v>2891.7046</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336" s="3"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>43608</v>
       </c>
@@ -4076,8 +4430,9 @@
       <c r="C337" s="1">
         <v>2852.5153</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337" s="3"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>43609</v>
       </c>
@@ -4087,8 +4442,9 @@
       <c r="C338" s="1">
         <v>2852.9947999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338" s="3"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>43612</v>
       </c>
@@ -4098,8 +4454,9 @@
       <c r="C339" s="1">
         <v>2892.3782000000001</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339" s="3"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>43613</v>
       </c>
@@ -4109,8 +4466,9 @@
       <c r="C340" s="1">
         <v>2909.9106000000002</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340" s="3"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>43614</v>
       </c>
@@ -4120,8 +4478,9 @@
       <c r="C341" s="1">
         <v>2914.6963999999998</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341" s="3"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>43615</v>
       </c>
@@ -4131,8 +4490,9 @@
       <c r="C342" s="1">
         <v>2905.8054000000002</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342" s="3"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>43616</v>
       </c>
@@ -4142,8 +4502,9 @@
       <c r="C343" s="1">
         <v>2898.6961000000001</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343" s="3"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>43619</v>
       </c>
@@ -4153,8 +4514,9 @@
       <c r="C344" s="1">
         <v>2890.0808999999999</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344" s="3"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>43620</v>
       </c>
@@ -4164,8 +4526,9 @@
       <c r="C345" s="1">
         <v>2862.2802999999999</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345" s="3"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>43621</v>
       </c>
@@ -4175,8 +4538,9 @@
       <c r="C346" s="1">
         <v>2861.4180999999999</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346" s="3"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>43622</v>
       </c>
@@ -4186,8 +4550,9 @@
       <c r="C347" s="1">
         <v>2827.7977999999998</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347" s="3"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>43626</v>
       </c>
@@ -4197,8 +4562,9 @@
       <c r="C348" s="1">
         <v>2852.1302000000001</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348" s="3"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>43627</v>
       </c>
@@ -4208,8 +4574,9 @@
       <c r="C349" s="1">
         <v>2925.7161999999998</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349" s="3"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>43628</v>
       </c>
@@ -4219,8 +4586,9 @@
       <c r="C350" s="1">
         <v>2909.3796000000002</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350" s="3"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>43629</v>
       </c>
@@ -4230,8 +4598,9 @@
       <c r="C351" s="1">
         <v>2910.7406000000001</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351" s="3"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>43630</v>
       </c>
@@ -4241,8 +4610,9 @@
       <c r="C352" s="1">
         <v>2881.9742999999999</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352" s="3"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>43633</v>
       </c>
@@ -4252,8 +4622,9 @@
       <c r="C353" s="1">
         <v>2887.6221</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353" s="3"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>43634</v>
       </c>
@@ -4263,8 +4634,9 @@
       <c r="C354" s="1">
         <v>2890.1579999999999</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354" s="3"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>43635</v>
       </c>
@@ -4274,8 +4646,9 @@
       <c r="C355" s="1">
         <v>2917.8029000000001</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355" s="3"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>43636</v>
       </c>
@@ -4285,8 +4658,9 @@
       <c r="C356" s="1">
         <v>2987.1185999999998</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356" s="3"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>43637</v>
       </c>
@@ -4296,8 +4670,9 @@
       <c r="C357" s="1">
         <v>3001.9802</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357" s="3"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>43640</v>
       </c>
@@ -4307,8 +4682,9 @@
       <c r="C358" s="1">
         <v>3008.1478999999999</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358" s="3"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>43641</v>
       </c>
@@ -4318,8 +4694,9 @@
       <c r="C359" s="1">
         <v>2982.0738000000001</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359" s="3"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>43642</v>
       </c>
@@ -4329,8 +4706,9 @@
       <c r="C360" s="1">
         <v>2976.2837</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360" s="3"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>43643</v>
       </c>
@@ -4340,8 +4718,9 @@
       <c r="C361" s="1">
         <v>2996.7926000000002</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361" s="3"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>43644</v>
       </c>
@@ -4351,8 +4730,9 @@
       <c r="C362" s="1">
         <v>2978.8784000000001</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362" s="3"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>43647</v>
       </c>
@@ -4362,8 +4742,9 @@
       <c r="C363" s="1">
         <v>3044.9027999999998</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363" s="3"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>43648</v>
       </c>
@@ -4373,8 +4754,9 @@
       <c r="C364" s="1">
         <v>3043.9427999999998</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364" s="3"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>43649</v>
       </c>
@@ -4384,8 +4766,9 @@
       <c r="C365" s="1">
         <v>3015.2633000000001</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365" s="3"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>43650</v>
       </c>
@@ -4395,8 +4778,9 @@
       <c r="C366" s="1">
         <v>3005.2487999999998</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366" s="3"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>43651</v>
       </c>
@@ -4406,8 +4790,9 @@
       <c r="C367" s="1">
         <v>3011.0587999999998</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367" s="3"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>43654</v>
       </c>
@@ -4417,8 +4802,9 @@
       <c r="C368" s="1">
         <v>2933.3634000000002</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368" s="3"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>43655</v>
       </c>
@@ -4428,8 +4814,9 @@
       <c r="C369" s="1">
         <v>2928.2294999999999</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369" s="3"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>43656</v>
       </c>
@@ -4439,8 +4826,9 @@
       <c r="C370" s="1">
         <v>2915.3022000000001</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370" s="3"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>43657</v>
       </c>
@@ -4450,8 +4838,9 @@
       <c r="C371" s="1">
         <v>2917.7609000000002</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371" s="3"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>43658</v>
       </c>
@@ -4461,8 +4850,9 @@
       <c r="C372" s="1">
         <v>2930.5462000000002</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372" s="3"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>43661</v>
       </c>
@@ -4472,8 +4862,9 @@
       <c r="C373" s="1">
         <v>2942.1853000000001</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373" s="3"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>43662</v>
       </c>
@@ -4483,8 +4874,9 @@
       <c r="C374" s="1">
         <v>2937.6167999999998</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374" s="3"/>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>43663</v>
       </c>
@@ -4494,8 +4886,9 @@
       <c r="C375" s="1">
         <v>2931.6925999999999</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375" s="3"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>43664</v>
       </c>
@@ -4505,8 +4898,9 @@
       <c r="C376" s="1">
         <v>2901.1765999999998</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376" s="3"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>43665</v>
       </c>
@@ -4516,8 +4910,9 @@
       <c r="C377" s="1">
         <v>2924.2006000000001</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377" s="3"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>43668</v>
       </c>
@@ -4527,8 +4922,9 @@
       <c r="C378" s="1">
         <v>2886.9740000000002</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378" s="3"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>43669</v>
       </c>
@@ -4538,8 +4934,9 @@
       <c r="C379" s="1">
         <v>2899.9445999999998</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379" s="3"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>43670</v>
       </c>
@@ -4549,8 +4946,9 @@
       <c r="C380" s="1">
         <v>2923.2775000000001</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380" s="3"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>43671</v>
       </c>
@@ -4560,8 +4958,9 @@
       <c r="C381" s="1">
         <v>2937.3600999999999</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381" s="3"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>43672</v>
       </c>
@@ -4571,8 +4970,9 @@
       <c r="C382" s="1">
         <v>2944.5410000000002</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382" s="3"/>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>43675</v>
       </c>
@@ -4582,8 +4982,9 @@
       <c r="C383" s="1">
         <v>2941.0070000000001</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383" s="3"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>43676</v>
       </c>
@@ -4593,8 +4994,9 @@
       <c r="C384" s="1">
         <v>2952.3382999999999</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384" s="3"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>43677</v>
       </c>
@@ -4604,8 +5006,9 @@
       <c r="C385" s="1">
         <v>2932.5057999999999</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385" s="3"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>43678</v>
       </c>
@@ -4615,8 +5018,9 @@
       <c r="C386" s="1">
         <v>2908.7660000000001</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386" s="3"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>43679</v>
       </c>
@@ -4626,8 +5030,9 @@
       <c r="C387" s="1">
         <v>2867.8375999999998</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387" s="3"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>43682</v>
       </c>
@@ -4637,8 +5042,9 @@
       <c r="C388" s="1">
         <v>2821.4956999999999</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388" s="3"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>43683</v>
       </c>
@@ -4648,8 +5054,9 @@
       <c r="C389" s="1">
         <v>2777.5558999999998</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389" s="3"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>43684</v>
       </c>
@@ -4659,8 +5066,9 @@
       <c r="C390" s="1">
         <v>2768.6795000000002</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390" s="3"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>43685</v>
       </c>
@@ -4670,8 +5078,9 @@
       <c r="C391" s="1">
         <v>2794.5522999999998</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391" s="3"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>43686</v>
       </c>
@@ -4681,8 +5090,9 @@
       <c r="C392" s="1">
         <v>2774.7532000000001</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392" s="3"/>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>43689</v>
       </c>
@@ -4692,8 +5102,9 @@
       <c r="C393" s="1">
         <v>2814.9944</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393" s="3"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>43690</v>
       </c>
@@ -4703,8 +5114,9 @@
       <c r="C394" s="1">
         <v>2797.2595999999999</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394" s="3"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>43691</v>
       </c>
@@ -4714,8 +5126,9 @@
       <c r="C395" s="1">
         <v>2808.9146000000001</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395" s="3"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>43692</v>
       </c>
@@ -4725,8 +5138,9 @@
       <c r="C396" s="1">
         <v>2815.7975999999999</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396" s="3"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>43693</v>
       </c>
@@ -4736,8 +5150,9 @@
       <c r="C397" s="1">
         <v>2823.8238000000001</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397" s="3"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>43696</v>
       </c>
@@ -4747,8 +5162,9 @@
       <c r="C398" s="1">
         <v>2883.096</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398" s="3"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>43697</v>
       </c>
@@ -4758,8 +5174,9 @@
       <c r="C399" s="1">
         <v>2880.0012000000002</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399" s="3"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>43698</v>
       </c>
@@ -4769,8 +5186,9 @@
       <c r="C400" s="1">
         <v>2880.3307</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400" s="3"/>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>43699</v>
       </c>
@@ -4780,8 +5198,9 @@
       <c r="C401" s="1">
         <v>2883.4358000000002</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401" s="3"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>43700</v>
       </c>
@@ -4791,8 +5210,9 @@
       <c r="C402" s="1">
         <v>2897.4252999999999</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402" s="3"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>43703</v>
       </c>
@@ -4802,8 +5222,9 @@
       <c r="C403" s="1">
         <v>2863.5673000000002</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403" s="3"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>43704</v>
       </c>
@@ -4813,8 +5234,9 @@
       <c r="C404" s="1">
         <v>2902.1932000000002</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404" s="3"/>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>43705</v>
       </c>
@@ -4824,8 +5246,9 @@
       <c r="C405" s="1">
         <v>2893.7564000000002</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405" s="3"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>43706</v>
       </c>
@@ -4835,8 +5258,9 @@
       <c r="C406" s="1">
         <v>2890.9191999999998</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406" s="3"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>43707</v>
       </c>
@@ -4846,8 +5270,9 @@
       <c r="C407" s="1">
         <v>2886.2365</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407" s="3"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>43710</v>
       </c>
@@ -4857,8 +5282,9 @@
       <c r="C408" s="1">
         <v>2924.1062999999999</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408" s="3"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>43711</v>
       </c>
@@ -4868,8 +5294,9 @@
       <c r="C409" s="1">
         <v>2930.1538</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409" s="3"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>43712</v>
       </c>
@@ -4879,8 +5306,9 @@
       <c r="C410" s="1">
         <v>2957.4115999999999</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410" s="3"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>43713</v>
       </c>
@@ -4890,8 +5318,9 @@
       <c r="C411" s="1">
         <v>2985.8647999999998</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411" s="3"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>43714</v>
       </c>
@@ -4901,8 +5330,9 @@
       <c r="C412" s="1">
         <v>2999.6012999999998</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412" s="3"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>43717</v>
       </c>
@@ -4912,8 +5342,9 @@
       <c r="C413" s="1">
         <v>3024.7388000000001</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413" s="3"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>43718</v>
       </c>
@@ -4923,8 +5354,9 @@
       <c r="C414" s="1">
         <v>3021.2024000000001</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414" s="3"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>43719</v>
       </c>
@@ -4934,8 +5366,9 @@
       <c r="C415" s="1">
         <v>3008.8117999999999</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415" s="3"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>43720</v>
       </c>
@@ -4945,8 +5378,9 @@
       <c r="C416" s="1">
         <v>3031.2350999999999</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D416" s="3"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>43724</v>
       </c>
@@ -4956,8 +5390,9 @@
       <c r="C417" s="1">
         <v>3030.7543999999998</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D417" s="3"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>43725</v>
       </c>
@@ -4967,8 +5402,9 @@
       <c r="C418" s="1">
         <v>2978.1178</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D418" s="3"/>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>43726</v>
       </c>
@@ -4978,8 +5414,9 @@
       <c r="C419" s="1">
         <v>2985.6586000000002</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D419" s="3"/>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>43727</v>
       </c>
@@ -4989,8 +5426,9 @@
       <c r="C420" s="1">
         <v>2999.2788999999998</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420" s="3"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>43728</v>
       </c>
@@ -5000,8 +5438,9 @@
       <c r="C421" s="1">
         <v>3006.4467</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D421" s="3"/>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>43731</v>
       </c>
@@ -5011,8 +5450,9 @@
       <c r="C422" s="1">
         <v>2977.0767000000001</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D422" s="3"/>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>43732</v>
       </c>
@@ -5022,8 +5462,9 @@
       <c r="C423" s="1">
         <v>2985.3406</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D423" s="3"/>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>43733</v>
       </c>
@@ -5033,8 +5474,9 @@
       <c r="C424" s="1">
         <v>2955.4324999999999</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D424" s="3"/>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>43734</v>
       </c>
@@ -5044,8 +5486,9 @@
       <c r="C425" s="1">
         <v>2929.0875000000001</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D425" s="3"/>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>43735</v>
       </c>
@@ -5055,8 +5498,9 @@
       <c r="C426" s="1">
         <v>2932.1669999999999</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D426" s="3"/>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>43738</v>
       </c>
@@ -5066,8 +5510,9 @@
       <c r="C427" s="1">
         <v>2905.1891999999998</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D427" s="3"/>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>43746</v>
       </c>
@@ -5077,8 +5522,9 @@
       <c r="C428" s="1">
         <v>2913.5704000000001</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D428" s="3"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>43747</v>
       </c>
@@ -5088,8 +5534,9 @@
       <c r="C429" s="1">
         <v>2924.8566000000001</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D429" s="3"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>43748</v>
       </c>
@@ -5099,8 +5546,9 @@
       <c r="C430" s="1">
         <v>2947.7105999999999</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D430" s="3"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>43749</v>
       </c>
@@ -5110,8 +5558,9 @@
       <c r="C431" s="1">
         <v>2973.6558</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D431" s="3"/>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>43752</v>
       </c>
@@ -5121,8 +5570,9 @@
       <c r="C432" s="1">
         <v>3007.8834000000002</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D432" s="3"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>43753</v>
       </c>
@@ -5132,8 +5582,9 @@
       <c r="C433" s="1">
         <v>2991.0459000000001</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D433" s="3"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>43754</v>
       </c>
@@ -5143,8 +5594,9 @@
       <c r="C434" s="1">
         <v>2978.7123999999999</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D434" s="3"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>43755</v>
       </c>
@@ -5154,8 +5606,9 @@
       <c r="C435" s="1">
         <v>2977.3341999999998</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D435" s="3"/>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>43756</v>
       </c>
@@ -5165,8 +5618,9 @@
       <c r="C436" s="1">
         <v>2938.1412999999998</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D436" s="3"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>43759</v>
       </c>
@@ -5176,8 +5630,9 @@
       <c r="C437" s="1">
         <v>2939.6179000000002</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D437" s="3"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>43760</v>
       </c>
@@ -5187,8 +5642,9 @@
       <c r="C438" s="1">
         <v>2954.3798999999999</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D438" s="3"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>43761</v>
       </c>
@@ -5198,8 +5654,9 @@
       <c r="C439" s="1">
         <v>2941.6188000000002</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D439" s="3"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>43762</v>
       </c>
@@ -5209,8 +5666,9 @@
       <c r="C440" s="1">
         <v>2940.9214999999999</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D440" s="3"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>43763</v>
       </c>
@@ -5220,8 +5678,9 @@
       <c r="C441" s="1">
         <v>2954.9326999999998</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D441" s="3"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>43766</v>
       </c>
@@ -5231,8 +5690,9 @@
       <c r="C442" s="1">
         <v>2980.0497999999998</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D442" s="3"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>43767</v>
       </c>
@@ -5242,8 +5702,9 @@
       <c r="C443" s="1">
         <v>2954.1759999999999</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D443" s="3"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>43768</v>
       </c>
@@ -5253,8 +5714,9 @@
       <c r="C444" s="1">
         <v>2939.3209000000002</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D444" s="3"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>43769</v>
       </c>
@@ -5264,8 +5726,9 @@
       <c r="C445" s="1">
         <v>2929.0560999999998</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D445" s="3"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>43770</v>
       </c>
@@ -5275,8 +5738,9 @@
       <c r="C446" s="1">
         <v>2958.1992</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D446" s="3"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>43773</v>
       </c>
@@ -5286,8 +5750,9 @@
       <c r="C447" s="1">
         <v>2975.4919</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D447" s="3"/>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>43774</v>
       </c>
@@ -5297,8 +5762,9 @@
       <c r="C448" s="1">
         <v>2991.5621999999998</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D448" s="3"/>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>43775</v>
       </c>
@@ -5308,8 +5774,9 @@
       <c r="C449" s="1">
         <v>2978.5954999999999</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D449" s="3"/>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>43776</v>
       </c>
@@ -5319,8 +5786,9 @@
       <c r="C450" s="1">
         <v>2978.7143999999998</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D450" s="3"/>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>43777</v>
       </c>
@@ -5330,8 +5798,9 @@
       <c r="C451" s="1">
         <v>2964.1849000000002</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D451" s="3"/>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>43780</v>
       </c>
@@ -5341,8 +5810,9 @@
       <c r="C452" s="1">
         <v>2909.9746</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D452" s="3"/>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>43781</v>
       </c>
@@ -5352,8 +5822,9 @@
       <c r="C453" s="1">
         <v>2914.8231999999998</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D453" s="3"/>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>43782</v>
       </c>
@@ -5363,8 +5834,9 @@
       <c r="C454" s="1">
         <v>2905.2408999999998</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D454" s="3"/>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>43783</v>
       </c>
@@ -5374,8 +5846,9 @@
       <c r="C455" s="1">
         <v>2909.8697000000002</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D455" s="3"/>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>43784</v>
       </c>
@@ -5385,8 +5858,9 @@
       <c r="C456" s="1">
         <v>2891.3431</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D456" s="3"/>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>43787</v>
       </c>
@@ -5396,8 +5870,9 @@
       <c r="C457" s="1">
         <v>2909.2002000000002</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D457" s="3"/>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>43788</v>
       </c>
@@ -5407,8 +5882,9 @@
       <c r="C458" s="1">
         <v>2933.9908</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D458" s="3"/>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>43789</v>
       </c>
@@ -5418,8 +5894,9 @@
       <c r="C459" s="1">
         <v>2911.0533999999998</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D459" s="3"/>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>43790</v>
       </c>
@@ -5429,8 +5906,9 @@
       <c r="C460" s="1">
         <v>2903.6379000000002</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D460" s="3"/>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>43791</v>
       </c>
@@ -5440,6 +5918,7 @@
       <c r="C461" s="1">
         <v>2885.2883999999999</v>
       </c>
+      <c r="D461" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C462">
